--- a/Rozsahy adres.xlsx
+++ b/Rozsahy adres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{08F1AC71-8921-49B0-BA5F-0B2479CFDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D854A5F-CD1E-48C4-97DF-9D27A9EB9EFA}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{08F1AC71-8921-49B0-BA5F-0B2479CFDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25BF324-89A4-470D-9ABE-49075C4000D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAA66BB9-4D9F-458E-A231-BA7B97C149C9}"/>
   </bookViews>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="27">
   <si>
     <t>.</t>
   </si>
   <si>
     <t>/24</t>
-  </si>
-  <si>
-    <t>tiskárny</t>
   </si>
   <si>
     <t>IOT</t>
@@ -55,12 +52,75 @@
   <si>
     <t>Síťová zařízení</t>
   </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>Mobilní telefony, tablety... Vše co je připojeno k síti Wi-Fi.</t>
+  </si>
+  <si>
+    <t>Televize, set-top-boxy, herní konzole... Vše co je připojeno metalickým vedením.</t>
+  </si>
+  <si>
+    <t>Tiskárny</t>
+  </si>
+  <si>
+    <t>Kamera1</t>
+  </si>
+  <si>
+    <t>Kamera2</t>
+  </si>
+  <si>
+    <t>Kamera3</t>
+  </si>
+  <si>
+    <t>Kamera4</t>
+  </si>
+  <si>
+    <t>Kamera5</t>
+  </si>
+  <si>
+    <t>Hlasový asistent</t>
+  </si>
+  <si>
+    <t>Meteostanice</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Brána IOT - Philips Hue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brána IOT - ZigBee </t>
+  </si>
+  <si>
+    <t>Kamery</t>
+  </si>
+  <si>
+    <t>Kouřový senzor</t>
+  </si>
+  <si>
+    <t>Senzor zaplavení</t>
+  </si>
+  <si>
+    <t>Zámek</t>
+  </si>
+  <si>
+    <t>Zásuvka</t>
+  </si>
+  <si>
+    <t>Spínač garážových vrat</t>
+  </si>
+  <si>
+    <t>Tiskárna 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +129,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -130,6 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -143,6 +219,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558457E2-7356-48E1-B13E-D255B032A534}">
-  <dimension ref="A2:H257"/>
+  <dimension ref="A2:I257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K197" sqref="K197"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,9 +554,10 @@
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>192</v>
       </c>
@@ -502,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>192</v>
       </c>
@@ -524,11 +605,14 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>192</v>
       </c>
@@ -550,9 +634,12 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="8"/>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>192</v>
       </c>
@@ -574,9 +661,9 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>192</v>
       </c>
@@ -598,9 +685,9 @@
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>192</v>
       </c>
@@ -622,9 +709,9 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>192</v>
       </c>
@@ -646,9 +733,9 @@
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>192</v>
       </c>
@@ -670,9 +757,9 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>192</v>
       </c>
@@ -694,9 +781,9 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>192</v>
       </c>
@@ -718,9 +805,9 @@
       <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>192</v>
       </c>
@@ -744,7 +831,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>192</v>
       </c>
@@ -768,7 +855,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>192</v>
       </c>
@@ -792,7 +879,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>192</v>
       </c>
@@ -816,7 +903,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>192</v>
       </c>
@@ -840,7 +927,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>192</v>
       </c>
@@ -862,11 +949,14 @@
       <c r="G17" s="3">
         <v>15</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>192</v>
       </c>
@@ -888,9 +978,9 @@
       <c r="G18" s="3">
         <v>16</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>192</v>
       </c>
@@ -912,9 +1002,9 @@
       <c r="G19" s="3">
         <v>17</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>192</v>
       </c>
@@ -936,9 +1026,9 @@
       <c r="G20" s="3">
         <v>18</v>
       </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>192</v>
       </c>
@@ -960,9 +1050,9 @@
       <c r="G21" s="3">
         <v>19</v>
       </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>192</v>
       </c>
@@ -984,9 +1074,9 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>192</v>
       </c>
@@ -1008,9 +1098,9 @@
       <c r="G23" s="3">
         <v>21</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>192</v>
       </c>
@@ -1032,9 +1122,9 @@
       <c r="G24" s="3">
         <v>22</v>
       </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>192</v>
       </c>
@@ -1056,9 +1146,9 @@
       <c r="G25" s="3">
         <v>23</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>192</v>
       </c>
@@ -1080,9 +1170,9 @@
       <c r="G26" s="3">
         <v>24</v>
       </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>192</v>
       </c>
@@ -1104,9 +1194,9 @@
       <c r="G27" s="3">
         <v>25</v>
       </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>192</v>
       </c>
@@ -1130,7 +1220,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>192</v>
       </c>
@@ -1154,7 +1244,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>192</v>
       </c>
@@ -1178,7 +1268,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>192</v>
       </c>
@@ -1202,7 +1292,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>192</v>
       </c>
@@ -1224,11 +1314,14 @@
       <c r="G32" s="4">
         <v>30</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>192</v>
       </c>
@@ -1250,9 +1343,12 @@
       <c r="G33" s="4">
         <v>31</v>
       </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="9"/>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>192</v>
       </c>
@@ -1274,9 +1370,12 @@
       <c r="G34" s="4">
         <v>32</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="9"/>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>192</v>
       </c>
@@ -1298,9 +1397,12 @@
       <c r="G35" s="4">
         <v>33</v>
       </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="9"/>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>192</v>
       </c>
@@ -1322,9 +1424,12 @@
       <c r="G36" s="4">
         <v>34</v>
       </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="9"/>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>192</v>
       </c>
@@ -1346,9 +1451,12 @@
       <c r="G37" s="4">
         <v>35</v>
       </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="9"/>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>192</v>
       </c>
@@ -1370,9 +1478,12 @@
       <c r="G38" s="4">
         <v>36</v>
       </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="9"/>
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>192</v>
       </c>
@@ -1394,9 +1505,12 @@
       <c r="G39" s="4">
         <v>37</v>
       </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="9"/>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>192</v>
       </c>
@@ -1418,9 +1532,12 @@
       <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="9"/>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>192</v>
       </c>
@@ -1442,9 +1559,9 @@
       <c r="G41" s="4">
         <v>39</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>192</v>
       </c>
@@ -1466,9 +1583,9 @@
       <c r="G42" s="4">
         <v>40</v>
       </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>192</v>
       </c>
@@ -1490,9 +1607,9 @@
       <c r="G43" s="4">
         <v>41</v>
       </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>192</v>
       </c>
@@ -1514,9 +1631,9 @@
       <c r="G44" s="4">
         <v>42</v>
       </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>192</v>
       </c>
@@ -1538,9 +1655,9 @@
       <c r="G45" s="4">
         <v>43</v>
       </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>192</v>
       </c>
@@ -1562,9 +1679,9 @@
       <c r="G46" s="4">
         <v>44</v>
       </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>192</v>
       </c>
@@ -1586,9 +1703,9 @@
       <c r="G47" s="4">
         <v>45</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>192</v>
       </c>
@@ -1610,7 +1727,7 @@
       <c r="G48" s="4">
         <v>46</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -1634,7 +1751,7 @@
       <c r="G49" s="4">
         <v>47</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -1658,7 +1775,7 @@
       <c r="G50" s="4">
         <v>48</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -1682,7 +1799,7 @@
       <c r="G51" s="4">
         <v>49</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -1706,7 +1823,7 @@
       <c r="G52" s="4">
         <v>50</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -1730,7 +1847,7 @@
       <c r="G53" s="4">
         <v>51</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -1754,7 +1871,7 @@
       <c r="G54" s="4">
         <v>52</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -1778,7 +1895,7 @@
       <c r="G55" s="4">
         <v>53</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -1802,7 +1919,7 @@
       <c r="G56" s="4">
         <v>54</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -1826,7 +1943,7 @@
       <c r="G57" s="4">
         <v>55</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -1850,7 +1967,7 @@
       <c r="G58" s="4">
         <v>56</v>
       </c>
-      <c r="H58" s="8"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -1874,7 +1991,7 @@
       <c r="G59" s="4">
         <v>57</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -1898,7 +2015,7 @@
       <c r="G60" s="4">
         <v>58</v>
       </c>
-      <c r="H60" s="8"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -1922,7 +2039,7 @@
       <c r="G61" s="4">
         <v>59</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -1993,7 +2110,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>192</v>
       </c>
@@ -2016,7 +2133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>192</v>
       </c>
@@ -2039,7 +2156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>192</v>
       </c>
@@ -2062,7 +2179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>192</v>
       </c>
@@ -2085,7 +2202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>192</v>
       </c>
@@ -2108,7 +2225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>192</v>
       </c>
@@ -2131,7 +2248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>192</v>
       </c>
@@ -2154,260 +2271,288 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>192</v>
-      </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>168</v>
-      </c>
-      <c r="D72" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
+        <v>192</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="13">
+        <v>168</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="13">
+        <v>1</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>192</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>168</v>
-      </c>
-      <c r="D73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73">
+      <c r="H72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
+        <v>192</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="13">
+        <v>168</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="13">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>192</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>168</v>
-      </c>
-      <c r="D74" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74">
+      <c r="H73" s="14"/>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>192</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13">
+        <v>168</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="13">
+        <v>1</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>192</v>
-      </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>168</v>
-      </c>
-      <c r="D75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75">
+      <c r="H74" s="14"/>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
+        <v>192</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="13">
+        <v>168</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="13">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>192</v>
-      </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>168</v>
-      </c>
-      <c r="D76" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="H75" s="14"/>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>192</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="13">
+        <v>168</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="13">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>192</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>168</v>
-      </c>
-      <c r="D77" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77">
+      <c r="H76" s="14"/>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
+        <v>192</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="13">
+        <v>168</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>192</v>
-      </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>168</v>
-      </c>
-      <c r="D78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
+        <v>192</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="13">
+        <v>168</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>192</v>
-      </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>168</v>
-      </c>
-      <c r="D79" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
+        <v>192</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="13">
+        <v>168</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="13">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>192</v>
-      </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>168</v>
-      </c>
-      <c r="D80" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80">
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
+        <v>192</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="13">
+        <v>168</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="13">
+        <v>1</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>192</v>
-      </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>168</v>
-      </c>
-      <c r="D81" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81">
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
+        <v>192</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="13">
+        <v>168</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="13">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>192</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>168</v>
-      </c>
-      <c r="D82" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
+        <v>192</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="13">
+        <v>168</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>192</v>
       </c>
@@ -2430,7 +2575,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>192</v>
       </c>
@@ -2453,7 +2598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>192</v>
       </c>
@@ -2476,7 +2621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>192</v>
       </c>
@@ -2499,7 +2644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>192</v>
       </c>
@@ -2522,7 +2667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>192</v>
       </c>
@@ -2545,7 +2690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>192</v>
       </c>
@@ -2568,7 +2713,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>192</v>
       </c>
@@ -2591,7 +2736,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>192</v>
       </c>
@@ -2614,7 +2759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>192</v>
       </c>
@@ -2637,7 +2782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>192</v>
       </c>
@@ -2660,7 +2805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>192</v>
       </c>
@@ -2683,7 +2828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>192</v>
       </c>
@@ -2706,7 +2851,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>192</v>
       </c>
@@ -2729,7 +2874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>192</v>
       </c>
@@ -2752,7 +2897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>192</v>
       </c>
@@ -2775,7 +2920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>192</v>
       </c>
@@ -2798,7 +2943,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>192</v>
       </c>
@@ -2821,7 +2966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>192</v>
       </c>
@@ -2844,7 +2989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>192</v>
       </c>
@@ -2866,11 +3011,14 @@
       <c r="G102" s="5">
         <v>100</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H102" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>192</v>
       </c>
@@ -2892,9 +3040,10 @@
       <c r="G103" s="5">
         <v>101</v>
       </c>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H103" s="11"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>192</v>
       </c>
@@ -2916,9 +3065,10 @@
       <c r="G104" s="5">
         <v>102</v>
       </c>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H104" s="11"/>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>192</v>
       </c>
@@ -2940,9 +3090,10 @@
       <c r="G105" s="5">
         <v>103</v>
       </c>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="11"/>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>192</v>
       </c>
@@ -2964,9 +3115,10 @@
       <c r="G106" s="5">
         <v>104</v>
       </c>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="11"/>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>192</v>
       </c>
@@ -2988,9 +3140,10 @@
       <c r="G107" s="5">
         <v>105</v>
       </c>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="11"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>192</v>
       </c>
@@ -3012,9 +3165,10 @@
       <c r="G108" s="5">
         <v>106</v>
       </c>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="11"/>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>192</v>
       </c>
@@ -3036,9 +3190,10 @@
       <c r="G109" s="5">
         <v>107</v>
       </c>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H109" s="11"/>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>192</v>
       </c>
@@ -3060,9 +3215,10 @@
       <c r="G110" s="5">
         <v>108</v>
       </c>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="11"/>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>192</v>
       </c>
@@ -3084,9 +3240,10 @@
       <c r="G111" s="5">
         <v>109</v>
       </c>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="11"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>192</v>
       </c>
@@ -3108,9 +3265,10 @@
       <c r="G112" s="5">
         <v>110</v>
       </c>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H112" s="11"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>192</v>
       </c>
@@ -3132,9 +3290,10 @@
       <c r="G113" s="5">
         <v>111</v>
       </c>
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="11"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>192</v>
       </c>
@@ -3156,9 +3315,10 @@
       <c r="G114" s="5">
         <v>112</v>
       </c>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="11"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>192</v>
       </c>
@@ -3180,9 +3340,10 @@
       <c r="G115" s="5">
         <v>113</v>
       </c>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H115" s="11"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>192</v>
       </c>
@@ -3204,9 +3365,10 @@
       <c r="G116" s="5">
         <v>114</v>
       </c>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="11"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>192</v>
       </c>
@@ -3228,9 +3390,10 @@
       <c r="G117" s="5">
         <v>115</v>
       </c>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="11"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>192</v>
       </c>
@@ -3252,9 +3415,10 @@
       <c r="G118" s="5">
         <v>116</v>
       </c>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="11"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>192</v>
       </c>
@@ -3276,9 +3440,10 @@
       <c r="G119" s="5">
         <v>117</v>
       </c>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H119" s="11"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>192</v>
       </c>
@@ -3300,9 +3465,10 @@
       <c r="G120" s="5">
         <v>118</v>
       </c>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="11"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>192</v>
       </c>
@@ -3324,9 +3490,10 @@
       <c r="G121" s="5">
         <v>119</v>
       </c>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="11"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>192</v>
       </c>
@@ -3348,9 +3515,10 @@
       <c r="G122" s="5">
         <v>120</v>
       </c>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="11"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>192</v>
       </c>
@@ -3372,9 +3540,10 @@
       <c r="G123" s="5">
         <v>121</v>
       </c>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="11"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>192</v>
       </c>
@@ -3396,9 +3565,10 @@
       <c r="G124" s="5">
         <v>122</v>
       </c>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="11"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>192</v>
       </c>
@@ -3420,9 +3590,10 @@
       <c r="G125" s="5">
         <v>123</v>
       </c>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="11"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>192</v>
       </c>
@@ -3444,9 +3615,10 @@
       <c r="G126" s="5">
         <v>124</v>
       </c>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="11"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>192</v>
       </c>
@@ -3468,9 +3640,10 @@
       <c r="G127" s="5">
         <v>125</v>
       </c>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="11"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>192</v>
       </c>
@@ -3492,9 +3665,10 @@
       <c r="G128" s="5">
         <v>126</v>
       </c>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H128" s="11"/>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>192</v>
       </c>
@@ -3516,9 +3690,10 @@
       <c r="G129" s="5">
         <v>127</v>
       </c>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H129" s="11"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>192</v>
       </c>
@@ -3540,9 +3715,10 @@
       <c r="G130" s="5">
         <v>128</v>
       </c>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="11"/>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>192</v>
       </c>
@@ -3564,9 +3740,10 @@
       <c r="G131" s="5">
         <v>129</v>
       </c>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H131" s="11"/>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>192</v>
       </c>
@@ -3588,9 +3765,10 @@
       <c r="G132" s="5">
         <v>130</v>
       </c>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="11"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>192</v>
       </c>
@@ -3612,9 +3790,10 @@
       <c r="G133" s="5">
         <v>131</v>
       </c>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="11"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>192</v>
       </c>
@@ -3636,9 +3815,10 @@
       <c r="G134" s="5">
         <v>132</v>
       </c>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H134" s="11"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>192</v>
       </c>
@@ -3660,9 +3840,10 @@
       <c r="G135" s="5">
         <v>133</v>
       </c>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H135" s="11"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>192</v>
       </c>
@@ -3684,9 +3865,10 @@
       <c r="G136" s="5">
         <v>134</v>
       </c>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="11"/>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>192</v>
       </c>
@@ -3708,9 +3890,10 @@
       <c r="G137" s="5">
         <v>135</v>
       </c>
-      <c r="H137" s="10"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H137" s="11"/>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>192</v>
       </c>
@@ -3732,9 +3915,10 @@
       <c r="G138" s="5">
         <v>136</v>
       </c>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H138" s="11"/>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>192</v>
       </c>
@@ -3756,9 +3940,10 @@
       <c r="G139" s="5">
         <v>137</v>
       </c>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="11"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>192</v>
       </c>
@@ -3780,9 +3965,10 @@
       <c r="G140" s="5">
         <v>138</v>
       </c>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H140" s="11"/>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>192</v>
       </c>
@@ -3804,9 +3990,10 @@
       <c r="G141" s="5">
         <v>139</v>
       </c>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H141" s="11"/>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>192</v>
       </c>
@@ -3828,9 +4015,10 @@
       <c r="G142" s="5">
         <v>140</v>
       </c>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H142" s="11"/>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>192</v>
       </c>
@@ -3852,9 +4040,10 @@
       <c r="G143" s="5">
         <v>141</v>
       </c>
-      <c r="H143" s="10"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H143" s="11"/>
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>192</v>
       </c>
@@ -3876,9 +4065,10 @@
       <c r="G144" s="5">
         <v>142</v>
       </c>
-      <c r="H144" s="10"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H144" s="11"/>
+      <c r="I144" s="7"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>192</v>
       </c>
@@ -3900,9 +4090,10 @@
       <c r="G145" s="5">
         <v>143</v>
       </c>
-      <c r="H145" s="10"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H145" s="11"/>
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>192</v>
       </c>
@@ -3924,9 +4115,10 @@
       <c r="G146" s="5">
         <v>144</v>
       </c>
-      <c r="H146" s="10"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H146" s="11"/>
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>192</v>
       </c>
@@ -3948,9 +4140,10 @@
       <c r="G147" s="5">
         <v>145</v>
       </c>
-      <c r="H147" s="10"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H147" s="11"/>
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>192</v>
       </c>
@@ -3972,9 +4165,10 @@
       <c r="G148" s="5">
         <v>146</v>
       </c>
-      <c r="H148" s="10"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H148" s="11"/>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>192</v>
       </c>
@@ -3996,9 +4190,10 @@
       <c r="G149" s="5">
         <v>147</v>
       </c>
-      <c r="H149" s="10"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H149" s="11"/>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>192</v>
       </c>
@@ -4020,9 +4215,10 @@
       <c r="G150" s="5">
         <v>148</v>
       </c>
-      <c r="H150" s="10"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H150" s="11"/>
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>192</v>
       </c>
@@ -4044,9 +4240,10 @@
       <c r="G151" s="5">
         <v>149</v>
       </c>
-      <c r="H151" s="10"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H151" s="11"/>
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>192</v>
       </c>
@@ -4068,9 +4265,10 @@
       <c r="G152" s="5">
         <v>150</v>
       </c>
-      <c r="H152" s="10"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H152" s="11"/>
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>192</v>
       </c>
@@ -4092,9 +4290,10 @@
       <c r="G153" s="5">
         <v>151</v>
       </c>
-      <c r="H153" s="10"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H153" s="11"/>
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>192</v>
       </c>
@@ -4116,9 +4315,10 @@
       <c r="G154" s="5">
         <v>152</v>
       </c>
-      <c r="H154" s="10"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H154" s="11"/>
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>192</v>
       </c>
@@ -4140,9 +4340,10 @@
       <c r="G155" s="5">
         <v>153</v>
       </c>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H155" s="11"/>
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>192</v>
       </c>
@@ -4164,9 +4365,10 @@
       <c r="G156" s="5">
         <v>154</v>
       </c>
-      <c r="H156" s="10"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H156" s="11"/>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>192</v>
       </c>
@@ -4188,9 +4390,10 @@
       <c r="G157" s="5">
         <v>155</v>
       </c>
-      <c r="H157" s="10"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H157" s="11"/>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>192</v>
       </c>
@@ -4212,9 +4415,10 @@
       <c r="G158" s="5">
         <v>156</v>
       </c>
-      <c r="H158" s="10"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H158" s="11"/>
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>192</v>
       </c>
@@ -4236,9 +4440,10 @@
       <c r="G159" s="5">
         <v>157</v>
       </c>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="11"/>
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>192</v>
       </c>
@@ -4260,9 +4465,10 @@
       <c r="G160" s="5">
         <v>158</v>
       </c>
-      <c r="H160" s="10"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H160" s="11"/>
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>192</v>
       </c>
@@ -4284,9 +4490,10 @@
       <c r="G161" s="5">
         <v>159</v>
       </c>
-      <c r="H161" s="10"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H161" s="11"/>
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>192</v>
       </c>
@@ -4308,9 +4515,10 @@
       <c r="G162" s="5">
         <v>160</v>
       </c>
-      <c r="H162" s="10"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H162" s="11"/>
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>192</v>
       </c>
@@ -4332,9 +4540,10 @@
       <c r="G163" s="5">
         <v>161</v>
       </c>
-      <c r="H163" s="10"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="11"/>
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>192</v>
       </c>
@@ -4356,9 +4565,10 @@
       <c r="G164" s="5">
         <v>162</v>
       </c>
-      <c r="H164" s="10"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H164" s="11"/>
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>192</v>
       </c>
@@ -4380,9 +4590,10 @@
       <c r="G165" s="5">
         <v>163</v>
       </c>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H165" s="11"/>
+      <c r="I165" s="7"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>192</v>
       </c>
@@ -4404,9 +4615,10 @@
       <c r="G166" s="5">
         <v>164</v>
       </c>
-      <c r="H166" s="10"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H166" s="11"/>
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>192</v>
       </c>
@@ -4428,9 +4640,10 @@
       <c r="G167" s="5">
         <v>165</v>
       </c>
-      <c r="H167" s="10"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H167" s="11"/>
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>192</v>
       </c>
@@ -4452,9 +4665,10 @@
       <c r="G168" s="5">
         <v>166</v>
       </c>
-      <c r="H168" s="10"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H168" s="11"/>
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>192</v>
       </c>
@@ -4476,9 +4690,10 @@
       <c r="G169" s="5">
         <v>167</v>
       </c>
-      <c r="H169" s="10"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="11"/>
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>192</v>
       </c>
@@ -4500,9 +4715,10 @@
       <c r="G170" s="5">
         <v>168</v>
       </c>
-      <c r="H170" s="10"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="11"/>
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>192</v>
       </c>
@@ -4524,9 +4740,10 @@
       <c r="G171" s="5">
         <v>169</v>
       </c>
-      <c r="H171" s="10"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="11"/>
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>192</v>
       </c>
@@ -4548,9 +4765,10 @@
       <c r="G172" s="5">
         <v>170</v>
       </c>
-      <c r="H172" s="10"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="11"/>
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>192</v>
       </c>
@@ -4572,9 +4790,10 @@
       <c r="G173" s="5">
         <v>171</v>
       </c>
-      <c r="H173" s="10"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H173" s="11"/>
+      <c r="I173" s="7"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>192</v>
       </c>
@@ -4596,9 +4815,10 @@
       <c r="G174" s="5">
         <v>172</v>
       </c>
-      <c r="H174" s="10"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H174" s="11"/>
+      <c r="I174" s="7"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>192</v>
       </c>
@@ -4620,9 +4840,10 @@
       <c r="G175" s="5">
         <v>173</v>
       </c>
-      <c r="H175" s="10"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H175" s="11"/>
+      <c r="I175" s="7"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>192</v>
       </c>
@@ -4644,9 +4865,10 @@
       <c r="G176" s="5">
         <v>174</v>
       </c>
-      <c r="H176" s="10"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="11"/>
+      <c r="I176" s="7"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>192</v>
       </c>
@@ -4668,9 +4890,10 @@
       <c r="G177" s="5">
         <v>175</v>
       </c>
-      <c r="H177" s="10"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H177" s="11"/>
+      <c r="I177" s="7"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>192</v>
       </c>
@@ -4692,9 +4915,10 @@
       <c r="G178" s="5">
         <v>176</v>
       </c>
-      <c r="H178" s="10"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H178" s="11"/>
+      <c r="I178" s="7"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>192</v>
       </c>
@@ -4716,9 +4940,10 @@
       <c r="G179" s="5">
         <v>177</v>
       </c>
-      <c r="H179" s="10"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H179" s="11"/>
+      <c r="I179" s="7"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>192</v>
       </c>
@@ -4740,9 +4965,10 @@
       <c r="G180" s="5">
         <v>178</v>
       </c>
-      <c r="H180" s="10"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H180" s="11"/>
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>192</v>
       </c>
@@ -4764,9 +4990,10 @@
       <c r="G181" s="5">
         <v>179</v>
       </c>
-      <c r="H181" s="10"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H181" s="11"/>
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>192</v>
       </c>
@@ -4788,9 +5015,10 @@
       <c r="G182" s="5">
         <v>180</v>
       </c>
-      <c r="H182" s="10"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H182" s="11"/>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>192</v>
       </c>
@@ -4812,9 +5040,10 @@
       <c r="G183" s="5">
         <v>181</v>
       </c>
-      <c r="H183" s="10"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H183" s="11"/>
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>192</v>
       </c>
@@ -4836,9 +5065,10 @@
       <c r="G184" s="5">
         <v>182</v>
       </c>
-      <c r="H184" s="10"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H184" s="11"/>
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>192</v>
       </c>
@@ -4860,9 +5090,10 @@
       <c r="G185" s="5">
         <v>183</v>
       </c>
-      <c r="H185" s="10"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H185" s="11"/>
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>192</v>
       </c>
@@ -4884,9 +5115,10 @@
       <c r="G186" s="5">
         <v>184</v>
       </c>
-      <c r="H186" s="10"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H186" s="11"/>
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>192</v>
       </c>
@@ -4908,9 +5140,10 @@
       <c r="G187" s="5">
         <v>185</v>
       </c>
-      <c r="H187" s="10"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H187" s="11"/>
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>192</v>
       </c>
@@ -4932,9 +5165,10 @@
       <c r="G188" s="5">
         <v>186</v>
       </c>
-      <c r="H188" s="10"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H188" s="11"/>
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>192</v>
       </c>
@@ -4956,9 +5190,10 @@
       <c r="G189" s="5">
         <v>187</v>
       </c>
-      <c r="H189" s="10"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H189" s="11"/>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>192</v>
       </c>
@@ -4980,9 +5215,10 @@
       <c r="G190" s="5">
         <v>188</v>
       </c>
-      <c r="H190" s="10"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H190" s="11"/>
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>192</v>
       </c>
@@ -5004,9 +5240,10 @@
       <c r="G191" s="5">
         <v>189</v>
       </c>
-      <c r="H191" s="10"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H191" s="11"/>
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>192</v>
       </c>
@@ -5028,9 +5265,10 @@
       <c r="G192" s="5">
         <v>190</v>
       </c>
-      <c r="H192" s="10"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H192" s="11"/>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -5052,9 +5290,10 @@
       <c r="G193" s="5">
         <v>191</v>
       </c>
-      <c r="H193" s="10"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H193" s="11"/>
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>192</v>
       </c>
@@ -5076,9 +5315,10 @@
       <c r="G194" s="5">
         <v>192</v>
       </c>
-      <c r="H194" s="10"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H194" s="11"/>
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>192</v>
       </c>
@@ -5100,9 +5340,10 @@
       <c r="G195" s="5">
         <v>193</v>
       </c>
-      <c r="H195" s="10"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H195" s="11"/>
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>192</v>
       </c>
@@ -5124,9 +5365,10 @@
       <c r="G196" s="5">
         <v>194</v>
       </c>
-      <c r="H196" s="10"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H196" s="11"/>
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>192</v>
       </c>
@@ -5148,9 +5390,10 @@
       <c r="G197" s="5">
         <v>195</v>
       </c>
-      <c r="H197" s="10"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H197" s="11"/>
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>192</v>
       </c>
@@ -5172,9 +5415,10 @@
       <c r="G198" s="5">
         <v>196</v>
       </c>
-      <c r="H198" s="10"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H198" s="11"/>
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>192</v>
       </c>
@@ -5196,9 +5440,10 @@
       <c r="G199" s="5">
         <v>197</v>
       </c>
-      <c r="H199" s="10"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H199" s="11"/>
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>192</v>
       </c>
@@ -5220,9 +5465,10 @@
       <c r="G200" s="5">
         <v>198</v>
       </c>
-      <c r="H200" s="10"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H200" s="11"/>
+      <c r="I200" s="7"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>192</v>
       </c>
@@ -5244,9 +5490,10 @@
       <c r="G201" s="5">
         <v>199</v>
       </c>
-      <c r="H201" s="10"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H201" s="11"/>
+      <c r="I201" s="7"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>192</v>
       </c>
@@ -5269,7 +5516,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>192</v>
       </c>
@@ -5292,7 +5539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>192</v>
       </c>
@@ -5315,7 +5562,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>192</v>
       </c>
@@ -5338,7 +5585,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>192</v>
       </c>
@@ -5361,7 +5608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>192</v>
       </c>
@@ -5384,7 +5631,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>192</v>
       </c>
@@ -5407,7 +5654,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>192</v>
       </c>
@@ -5430,7 +5677,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>192</v>
       </c>
@@ -5453,7 +5700,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>192</v>
       </c>
@@ -5476,7 +5723,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>192</v>
       </c>
@@ -5498,11 +5745,14 @@
       <c r="G212" s="6">
         <v>210</v>
       </c>
-      <c r="H212" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H212" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I212" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>192</v>
       </c>
@@ -5524,9 +5774,10 @@
       <c r="G213" s="6">
         <v>211</v>
       </c>
-      <c r="H213" s="11"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H213" s="12"/>
+      <c r="I213" s="7"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>192</v>
       </c>
@@ -5548,9 +5799,10 @@
       <c r="G214" s="6">
         <v>212</v>
       </c>
-      <c r="H214" s="11"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H214" s="12"/>
+      <c r="I214" s="7"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>192</v>
       </c>
@@ -5572,9 +5824,10 @@
       <c r="G215" s="6">
         <v>213</v>
       </c>
-      <c r="H215" s="11"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H215" s="12"/>
+      <c r="I215" s="7"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>192</v>
       </c>
@@ -5596,9 +5849,10 @@
       <c r="G216" s="6">
         <v>214</v>
       </c>
-      <c r="H216" s="11"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H216" s="12"/>
+      <c r="I216" s="7"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>192</v>
       </c>
@@ -5620,9 +5874,10 @@
       <c r="G217" s="6">
         <v>215</v>
       </c>
-      <c r="H217" s="11"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H217" s="12"/>
+      <c r="I217" s="7"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>192</v>
       </c>
@@ -5644,9 +5899,10 @@
       <c r="G218" s="6">
         <v>216</v>
       </c>
-      <c r="H218" s="11"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H218" s="12"/>
+      <c r="I218" s="7"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>192</v>
       </c>
@@ -5668,9 +5924,10 @@
       <c r="G219" s="6">
         <v>217</v>
       </c>
-      <c r="H219" s="11"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H219" s="12"/>
+      <c r="I219" s="7"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>192</v>
       </c>
@@ -5692,9 +5949,10 @@
       <c r="G220" s="6">
         <v>218</v>
       </c>
-      <c r="H220" s="11"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H220" s="12"/>
+      <c r="I220" s="7"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>192</v>
       </c>
@@ -5716,9 +5974,10 @@
       <c r="G221" s="6">
         <v>219</v>
       </c>
-      <c r="H221" s="11"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H221" s="12"/>
+      <c r="I221" s="7"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>192</v>
       </c>
@@ -5740,9 +5999,10 @@
       <c r="G222" s="6">
         <v>220</v>
       </c>
-      <c r="H222" s="11"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H222" s="12"/>
+      <c r="I222" s="7"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>192</v>
       </c>
@@ -5764,9 +6024,10 @@
       <c r="G223" s="6">
         <v>221</v>
       </c>
-      <c r="H223" s="11"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H223" s="12"/>
+      <c r="I223" s="7"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>192</v>
       </c>
@@ -5788,9 +6049,10 @@
       <c r="G224" s="6">
         <v>222</v>
       </c>
-      <c r="H224" s="11"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H224" s="12"/>
+      <c r="I224" s="7"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>192</v>
       </c>
@@ -5812,9 +6074,10 @@
       <c r="G225" s="6">
         <v>223</v>
       </c>
-      <c r="H225" s="11"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H225" s="12"/>
+      <c r="I225" s="7"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>192</v>
       </c>
@@ -5836,9 +6099,10 @@
       <c r="G226" s="6">
         <v>224</v>
       </c>
-      <c r="H226" s="11"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H226" s="12"/>
+      <c r="I226" s="7"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>192</v>
       </c>
@@ -5860,9 +6124,10 @@
       <c r="G227" s="6">
         <v>225</v>
       </c>
-      <c r="H227" s="11"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H227" s="12"/>
+      <c r="I227" s="7"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>192</v>
       </c>
@@ -5884,9 +6149,10 @@
       <c r="G228" s="6">
         <v>226</v>
       </c>
-      <c r="H228" s="11"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H228" s="12"/>
+      <c r="I228" s="7"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>192</v>
       </c>
@@ -5908,9 +6174,10 @@
       <c r="G229" s="6">
         <v>227</v>
       </c>
-      <c r="H229" s="11"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H229" s="12"/>
+      <c r="I229" s="7"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>192</v>
       </c>
@@ -5932,9 +6199,10 @@
       <c r="G230" s="6">
         <v>228</v>
       </c>
-      <c r="H230" s="11"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H230" s="12"/>
+      <c r="I230" s="7"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>192</v>
       </c>
@@ -5956,9 +6224,10 @@
       <c r="G231" s="6">
         <v>229</v>
       </c>
-      <c r="H231" s="11"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H231" s="12"/>
+      <c r="I231" s="7"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>192</v>
       </c>
@@ -5980,9 +6249,10 @@
       <c r="G232" s="6">
         <v>230</v>
       </c>
-      <c r="H232" s="11"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H232" s="12"/>
+      <c r="I232" s="7"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>192</v>
       </c>
@@ -6004,9 +6274,10 @@
       <c r="G233" s="6">
         <v>231</v>
       </c>
-      <c r="H233" s="11"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H233" s="12"/>
+      <c r="I233" s="7"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>192</v>
       </c>
@@ -6028,9 +6299,10 @@
       <c r="G234" s="6">
         <v>232</v>
       </c>
-      <c r="H234" s="11"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H234" s="12"/>
+      <c r="I234" s="7"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>192</v>
       </c>
@@ -6052,9 +6324,10 @@
       <c r="G235" s="6">
         <v>233</v>
       </c>
-      <c r="H235" s="11"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H235" s="12"/>
+      <c r="I235" s="7"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>192</v>
       </c>
@@ -6076,9 +6349,10 @@
       <c r="G236" s="6">
         <v>234</v>
       </c>
-      <c r="H236" s="11"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H236" s="12"/>
+      <c r="I236" s="7"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>192</v>
       </c>
@@ -6100,9 +6374,10 @@
       <c r="G237" s="6">
         <v>235</v>
       </c>
-      <c r="H237" s="11"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H237" s="12"/>
+      <c r="I237" s="7"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>192</v>
       </c>
@@ -6124,9 +6399,10 @@
       <c r="G238" s="6">
         <v>236</v>
       </c>
-      <c r="H238" s="11"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H238" s="12"/>
+      <c r="I238" s="7"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>192</v>
       </c>
@@ -6148,9 +6424,10 @@
       <c r="G239" s="6">
         <v>237</v>
       </c>
-      <c r="H239" s="11"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H239" s="12"/>
+      <c r="I239" s="7"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>192</v>
       </c>
@@ -6172,9 +6449,10 @@
       <c r="G240" s="6">
         <v>238</v>
       </c>
-      <c r="H240" s="11"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H240" s="12"/>
+      <c r="I240" s="7"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>192</v>
       </c>
@@ -6196,9 +6474,10 @@
       <c r="G241" s="6">
         <v>239</v>
       </c>
-      <c r="H241" s="11"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H241" s="12"/>
+      <c r="I241" s="7"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>192</v>
       </c>
@@ -6220,9 +6499,10 @@
       <c r="G242" s="6">
         <v>240</v>
       </c>
-      <c r="H242" s="11"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H242" s="12"/>
+      <c r="I242" s="7"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>192</v>
       </c>
@@ -6244,9 +6524,10 @@
       <c r="G243" s="6">
         <v>241</v>
       </c>
-      <c r="H243" s="11"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H243" s="12"/>
+      <c r="I243" s="7"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>192</v>
       </c>
@@ -6268,9 +6549,10 @@
       <c r="G244" s="6">
         <v>242</v>
       </c>
-      <c r="H244" s="11"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H244" s="12"/>
+      <c r="I244" s="7"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>192</v>
       </c>
@@ -6292,9 +6574,10 @@
       <c r="G245" s="6">
         <v>243</v>
       </c>
-      <c r="H245" s="11"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H245" s="12"/>
+      <c r="I245" s="7"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>192</v>
       </c>
@@ -6316,9 +6599,10 @@
       <c r="G246" s="6">
         <v>244</v>
       </c>
-      <c r="H246" s="11"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H246" s="12"/>
+      <c r="I246" s="7"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>192</v>
       </c>
@@ -6340,9 +6624,10 @@
       <c r="G247" s="6">
         <v>245</v>
       </c>
-      <c r="H247" s="11"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H247" s="12"/>
+      <c r="I247" s="7"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>192</v>
       </c>
@@ -6364,9 +6649,10 @@
       <c r="G248" s="6">
         <v>246</v>
       </c>
-      <c r="H248" s="11"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H248" s="12"/>
+      <c r="I248" s="7"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>192</v>
       </c>
@@ -6388,9 +6674,10 @@
       <c r="G249" s="6">
         <v>247</v>
       </c>
-      <c r="H249" s="11"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H249" s="12"/>
+      <c r="I249" s="7"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>192</v>
       </c>
@@ -6412,9 +6699,10 @@
       <c r="G250" s="6">
         <v>248</v>
       </c>
-      <c r="H250" s="11"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H250" s="12"/>
+      <c r="I250" s="7"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>192</v>
       </c>
@@ -6436,9 +6724,10 @@
       <c r="G251" s="6">
         <v>249</v>
       </c>
-      <c r="H251" s="11"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H251" s="12"/>
+      <c r="I251" s="7"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>192</v>
       </c>
@@ -6460,9 +6749,10 @@
       <c r="G252" s="6">
         <v>250</v>
       </c>
-      <c r="H252" s="11"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H252" s="12"/>
+      <c r="I252" s="7"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>192</v>
       </c>
@@ -6484,9 +6774,10 @@
       <c r="G253" s="6">
         <v>251</v>
       </c>
-      <c r="H253" s="11"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H253" s="12"/>
+      <c r="I253" s="7"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>192</v>
       </c>
@@ -6508,9 +6799,10 @@
       <c r="G254" s="6">
         <v>252</v>
       </c>
-      <c r="H254" s="11"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H254" s="12"/>
+      <c r="I254" s="7"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>192</v>
       </c>
@@ -6532,9 +6824,10 @@
       <c r="G255" s="6">
         <v>253</v>
       </c>
-      <c r="H255" s="11"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H255" s="12"/>
+      <c r="I255" s="7"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>192</v>
       </c>
@@ -6556,9 +6849,10 @@
       <c r="G256" s="6">
         <v>254</v>
       </c>
-      <c r="H256" s="11"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H256" s="12"/>
+      <c r="I256" s="7"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>192</v>
       </c>
@@ -6580,16 +6874,21 @@
       <c r="G257" s="6">
         <v>255</v>
       </c>
-      <c r="H257" s="11"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="I212:I257"/>
+    <mergeCell ref="I102:I201"/>
     <mergeCell ref="H3:H11"/>
     <mergeCell ref="H32:H61"/>
     <mergeCell ref="H17:H27"/>
     <mergeCell ref="H102:H201"/>
     <mergeCell ref="H212:H257"/>
+    <mergeCell ref="H72:H82"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Rozsahy adres.xlsx
+++ b/Rozsahy adres.xlsx
@@ -203,6 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -221,7 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,7 +542,7 @@
   <dimension ref="A2:I257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,7 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -634,7 +634,7 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" t="s">
         <v>6</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -685,7 +685,7 @@
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -709,7 +709,7 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -733,7 +733,7 @@
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -757,7 +757,7 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -781,7 +781,7 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -805,7 +805,7 @@
       <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -949,7 +949,7 @@
       <c r="G17" s="3">
         <v>15</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I17" t="s">
@@ -978,7 +978,7 @@
       <c r="G18" s="3">
         <v>16</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1002,7 +1002,7 @@
       <c r="G19" s="3">
         <v>17</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1026,7 +1026,7 @@
       <c r="G20" s="3">
         <v>18</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1050,7 +1050,7 @@
       <c r="G21" s="3">
         <v>19</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -1074,7 +1074,7 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1098,7 +1098,7 @@
       <c r="G23" s="3">
         <v>21</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -1122,7 +1122,7 @@
       <c r="G24" s="3">
         <v>22</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1146,7 +1146,7 @@
       <c r="G25" s="3">
         <v>23</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1170,7 +1170,7 @@
       <c r="G26" s="3">
         <v>24</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1194,7 +1194,7 @@
       <c r="G27" s="3">
         <v>25</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1314,7 +1314,7 @@
       <c r="G32" s="4">
         <v>30</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I32" t="s">
@@ -1343,7 +1343,7 @@
       <c r="G33" s="4">
         <v>31</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33" t="s">
         <v>19</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="G34" s="4">
         <v>32</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="10"/>
       <c r="I34" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="G35" s="4">
         <v>33</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="10"/>
       <c r="I35" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="G36" s="4">
         <v>34</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="10"/>
       <c r="I36" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="G37" s="4">
         <v>35</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="I37" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="G38" s="4">
         <v>36</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="G39" s="4">
         <v>37</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="G41" s="4">
         <v>39</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -1583,7 +1583,7 @@
       <c r="G42" s="4">
         <v>40</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -1607,7 +1607,7 @@
       <c r="G43" s="4">
         <v>41</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -1631,7 +1631,7 @@
       <c r="G44" s="4">
         <v>42</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -1655,7 +1655,7 @@
       <c r="G45" s="4">
         <v>43</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -1679,7 +1679,7 @@
       <c r="G46" s="4">
         <v>44</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -1703,7 +1703,7 @@
       <c r="G47" s="4">
         <v>45</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -1727,7 +1727,7 @@
       <c r="G48" s="4">
         <v>46</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -1751,7 +1751,7 @@
       <c r="G49" s="4">
         <v>47</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -1775,7 +1775,7 @@
       <c r="G50" s="4">
         <v>48</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -1799,7 +1799,7 @@
       <c r="G51" s="4">
         <v>49</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -1823,7 +1823,7 @@
       <c r="G52" s="4">
         <v>50</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -1847,7 +1847,7 @@
       <c r="G53" s="4">
         <v>51</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -1871,7 +1871,7 @@
       <c r="G54" s="4">
         <v>52</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -1895,7 +1895,7 @@
       <c r="G55" s="4">
         <v>53</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -1919,7 +1919,7 @@
       <c r="G56" s="4">
         <v>54</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -1943,7 +1943,7 @@
       <c r="G57" s="4">
         <v>55</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -1967,7 +1967,7 @@
       <c r="G58" s="4">
         <v>56</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -1991,7 +1991,7 @@
       <c r="G59" s="4">
         <v>57</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -2015,7 +2015,7 @@
       <c r="G60" s="4">
         <v>58</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -2039,7 +2039,7 @@
       <c r="G61" s="4">
         <v>59</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -2272,25 +2272,25 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
-        <v>192</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="13">
-        <v>168</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="13">
-        <v>1</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="13">
+      <c r="A72" s="7">
+        <v>192</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="7">
+        <v>168</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
         <v>70</v>
       </c>
       <c r="H72" s="14" t="s">
@@ -2301,25 +2301,25 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
-        <v>192</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="13">
-        <v>168</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="13">
-        <v>1</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="13">
+      <c r="A73" s="7">
+        <v>192</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7">
+        <v>168</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
         <v>71</v>
       </c>
       <c r="H73" s="14"/>
@@ -2328,25 +2328,25 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
-        <v>192</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="13">
-        <v>168</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="13">
-        <v>1</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="13">
+      <c r="A74" s="7">
+        <v>192</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="7">
+        <v>168</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
         <v>72</v>
       </c>
       <c r="H74" s="14"/>
@@ -2355,25 +2355,25 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
-        <v>192</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="13">
-        <v>168</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="13">
-        <v>1</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="13">
+      <c r="A75" s="7">
+        <v>192</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="7">
+        <v>168</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
         <v>73</v>
       </c>
       <c r="H75" s="14"/>
@@ -2382,25 +2382,25 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
-        <v>192</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="13">
-        <v>168</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="13">
-        <v>1</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="13">
+      <c r="A76" s="7">
+        <v>192</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="7">
+        <v>168</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
         <v>74</v>
       </c>
       <c r="H76" s="14"/>
@@ -2409,145 +2409,145 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
-        <v>192</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="13">
-        <v>168</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="13">
-        <v>1</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="13">
+      <c r="A77" s="7">
+        <v>192</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="7">
+        <v>168</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
         <v>75</v>
       </c>
       <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
-        <v>192</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="13">
-        <v>168</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="13">
-        <v>1</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" s="13">
+      <c r="A78" s="7">
+        <v>192</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="7">
+        <v>168</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
         <v>76</v>
       </c>
       <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="13">
-        <v>192</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="13">
-        <v>168</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="13">
-        <v>1</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="13">
+      <c r="A79" s="7">
+        <v>192</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="7">
+        <v>168</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
         <v>77</v>
       </c>
       <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
-        <v>192</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="13">
-        <v>168</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="13">
-        <v>1</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="13">
+      <c r="A80" s="7">
+        <v>192</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="7">
+        <v>168</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
         <v>78</v>
       </c>
       <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="13">
-        <v>192</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="13">
-        <v>168</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="13">
-        <v>1</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="13">
+      <c r="A81" s="7">
+        <v>192</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7">
+        <v>168</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
         <v>79</v>
       </c>
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
-        <v>192</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="13">
-        <v>168</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="13">
-        <v>1</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82" s="13">
+      <c r="A82" s="7">
+        <v>192</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="7">
+        <v>168</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
         <v>80</v>
       </c>
       <c r="H82" s="14"/>
@@ -3011,10 +3011,10 @@
       <c r="G102" s="5">
         <v>100</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="H102" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3040,8 +3040,8 @@
       <c r="G103" s="5">
         <v>101</v>
       </c>
-      <c r="H103" s="11"/>
-      <c r="I103" s="7"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
@@ -3065,8 +3065,8 @@
       <c r="G104" s="5">
         <v>102</v>
       </c>
-      <c r="H104" s="11"/>
-      <c r="I104" s="7"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
@@ -3090,8 +3090,8 @@
       <c r="G105" s="5">
         <v>103</v>
       </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="7"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
@@ -3115,8 +3115,8 @@
       <c r="G106" s="5">
         <v>104</v>
       </c>
-      <c r="H106" s="11"/>
-      <c r="I106" s="7"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
@@ -3140,8 +3140,8 @@
       <c r="G107" s="5">
         <v>105</v>
       </c>
-      <c r="H107" s="11"/>
-      <c r="I107" s="7"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
@@ -3165,8 +3165,8 @@
       <c r="G108" s="5">
         <v>106</v>
       </c>
-      <c r="H108" s="11"/>
-      <c r="I108" s="7"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
@@ -3190,8 +3190,8 @@
       <c r="G109" s="5">
         <v>107</v>
       </c>
-      <c r="H109" s="11"/>
-      <c r="I109" s="7"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
@@ -3215,8 +3215,8 @@
       <c r="G110" s="5">
         <v>108</v>
       </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="7"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
@@ -3240,8 +3240,8 @@
       <c r="G111" s="5">
         <v>109</v>
       </c>
-      <c r="H111" s="11"/>
-      <c r="I111" s="7"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
@@ -3265,8 +3265,8 @@
       <c r="G112" s="5">
         <v>110</v>
       </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="7"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
@@ -3290,8 +3290,8 @@
       <c r="G113" s="5">
         <v>111</v>
       </c>
-      <c r="H113" s="11"/>
-      <c r="I113" s="7"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
@@ -3315,8 +3315,8 @@
       <c r="G114" s="5">
         <v>112</v>
       </c>
-      <c r="H114" s="11"/>
-      <c r="I114" s="7"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
@@ -3340,8 +3340,8 @@
       <c r="G115" s="5">
         <v>113</v>
       </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="7"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
@@ -3365,8 +3365,8 @@
       <c r="G116" s="5">
         <v>114</v>
       </c>
-      <c r="H116" s="11"/>
-      <c r="I116" s="7"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
@@ -3390,8 +3390,8 @@
       <c r="G117" s="5">
         <v>115</v>
       </c>
-      <c r="H117" s="11"/>
-      <c r="I117" s="7"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
@@ -3415,8 +3415,8 @@
       <c r="G118" s="5">
         <v>116</v>
       </c>
-      <c r="H118" s="11"/>
-      <c r="I118" s="7"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
@@ -3440,8 +3440,8 @@
       <c r="G119" s="5">
         <v>117</v>
       </c>
-      <c r="H119" s="11"/>
-      <c r="I119" s="7"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
@@ -3465,8 +3465,8 @@
       <c r="G120" s="5">
         <v>118</v>
       </c>
-      <c r="H120" s="11"/>
-      <c r="I120" s="7"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
@@ -3490,8 +3490,8 @@
       <c r="G121" s="5">
         <v>119</v>
       </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="7"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
@@ -3515,8 +3515,8 @@
       <c r="G122" s="5">
         <v>120</v>
       </c>
-      <c r="H122" s="11"/>
-      <c r="I122" s="7"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
@@ -3540,8 +3540,8 @@
       <c r="G123" s="5">
         <v>121</v>
       </c>
-      <c r="H123" s="11"/>
-      <c r="I123" s="7"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
@@ -3565,8 +3565,8 @@
       <c r="G124" s="5">
         <v>122</v>
       </c>
-      <c r="H124" s="11"/>
-      <c r="I124" s="7"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
@@ -3590,8 +3590,8 @@
       <c r="G125" s="5">
         <v>123</v>
       </c>
-      <c r="H125" s="11"/>
-      <c r="I125" s="7"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="8"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
@@ -3615,8 +3615,8 @@
       <c r="G126" s="5">
         <v>124</v>
       </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="7"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="8"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
@@ -3640,8 +3640,8 @@
       <c r="G127" s="5">
         <v>125</v>
       </c>
-      <c r="H127" s="11"/>
-      <c r="I127" s="7"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
@@ -3665,8 +3665,8 @@
       <c r="G128" s="5">
         <v>126</v>
       </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="7"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
@@ -3690,8 +3690,8 @@
       <c r="G129" s="5">
         <v>127</v>
       </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="7"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="8"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
@@ -3715,8 +3715,8 @@
       <c r="G130" s="5">
         <v>128</v>
       </c>
-      <c r="H130" s="11"/>
-      <c r="I130" s="7"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
@@ -3740,8 +3740,8 @@
       <c r="G131" s="5">
         <v>129</v>
       </c>
-      <c r="H131" s="11"/>
-      <c r="I131" s="7"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="8"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
@@ -3765,8 +3765,8 @@
       <c r="G132" s="5">
         <v>130</v>
       </c>
-      <c r="H132" s="11"/>
-      <c r="I132" s="7"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="8"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
@@ -3790,8 +3790,8 @@
       <c r="G133" s="5">
         <v>131</v>
       </c>
-      <c r="H133" s="11"/>
-      <c r="I133" s="7"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
@@ -3815,8 +3815,8 @@
       <c r="G134" s="5">
         <v>132</v>
       </c>
-      <c r="H134" s="11"/>
-      <c r="I134" s="7"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
@@ -3840,8 +3840,8 @@
       <c r="G135" s="5">
         <v>133</v>
       </c>
-      <c r="H135" s="11"/>
-      <c r="I135" s="7"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="8"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
@@ -3865,8 +3865,8 @@
       <c r="G136" s="5">
         <v>134</v>
       </c>
-      <c r="H136" s="11"/>
-      <c r="I136" s="7"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="8"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
@@ -3890,8 +3890,8 @@
       <c r="G137" s="5">
         <v>135</v>
       </c>
-      <c r="H137" s="11"/>
-      <c r="I137" s="7"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
@@ -3915,8 +3915,8 @@
       <c r="G138" s="5">
         <v>136</v>
       </c>
-      <c r="H138" s="11"/>
-      <c r="I138" s="7"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
@@ -3940,8 +3940,8 @@
       <c r="G139" s="5">
         <v>137</v>
       </c>
-      <c r="H139" s="11"/>
-      <c r="I139" s="7"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
@@ -3965,8 +3965,8 @@
       <c r="G140" s="5">
         <v>138</v>
       </c>
-      <c r="H140" s="11"/>
-      <c r="I140" s="7"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="8"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
@@ -3990,8 +3990,8 @@
       <c r="G141" s="5">
         <v>139</v>
       </c>
-      <c r="H141" s="11"/>
-      <c r="I141" s="7"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="8"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
@@ -4015,8 +4015,8 @@
       <c r="G142" s="5">
         <v>140</v>
       </c>
-      <c r="H142" s="11"/>
-      <c r="I142" s="7"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="8"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
@@ -4040,8 +4040,8 @@
       <c r="G143" s="5">
         <v>141</v>
       </c>
-      <c r="H143" s="11"/>
-      <c r="I143" s="7"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
@@ -4065,8 +4065,8 @@
       <c r="G144" s="5">
         <v>142</v>
       </c>
-      <c r="H144" s="11"/>
-      <c r="I144" s="7"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="8"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
@@ -4090,8 +4090,8 @@
       <c r="G145" s="5">
         <v>143</v>
       </c>
-      <c r="H145" s="11"/>
-      <c r="I145" s="7"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="8"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
@@ -4115,8 +4115,8 @@
       <c r="G146" s="5">
         <v>144</v>
       </c>
-      <c r="H146" s="11"/>
-      <c r="I146" s="7"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="8"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
@@ -4140,8 +4140,8 @@
       <c r="G147" s="5">
         <v>145</v>
       </c>
-      <c r="H147" s="11"/>
-      <c r="I147" s="7"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="8"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
@@ -4165,8 +4165,8 @@
       <c r="G148" s="5">
         <v>146</v>
       </c>
-      <c r="H148" s="11"/>
-      <c r="I148" s="7"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
@@ -4190,8 +4190,8 @@
       <c r="G149" s="5">
         <v>147</v>
       </c>
-      <c r="H149" s="11"/>
-      <c r="I149" s="7"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="8"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
@@ -4215,8 +4215,8 @@
       <c r="G150" s="5">
         <v>148</v>
       </c>
-      <c r="H150" s="11"/>
-      <c r="I150" s="7"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="8"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
@@ -4240,8 +4240,8 @@
       <c r="G151" s="5">
         <v>149</v>
       </c>
-      <c r="H151" s="11"/>
-      <c r="I151" s="7"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="8"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
@@ -4265,8 +4265,8 @@
       <c r="G152" s="5">
         <v>150</v>
       </c>
-      <c r="H152" s="11"/>
-      <c r="I152" s="7"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="8"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
@@ -4290,8 +4290,8 @@
       <c r="G153" s="5">
         <v>151</v>
       </c>
-      <c r="H153" s="11"/>
-      <c r="I153" s="7"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="8"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
@@ -4315,8 +4315,8 @@
       <c r="G154" s="5">
         <v>152</v>
       </c>
-      <c r="H154" s="11"/>
-      <c r="I154" s="7"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="8"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
@@ -4340,8 +4340,8 @@
       <c r="G155" s="5">
         <v>153</v>
       </c>
-      <c r="H155" s="11"/>
-      <c r="I155" s="7"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="8"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
@@ -4365,8 +4365,8 @@
       <c r="G156" s="5">
         <v>154</v>
       </c>
-      <c r="H156" s="11"/>
-      <c r="I156" s="7"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="8"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
@@ -4390,8 +4390,8 @@
       <c r="G157" s="5">
         <v>155</v>
       </c>
-      <c r="H157" s="11"/>
-      <c r="I157" s="7"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="8"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
@@ -4415,8 +4415,8 @@
       <c r="G158" s="5">
         <v>156</v>
       </c>
-      <c r="H158" s="11"/>
-      <c r="I158" s="7"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="8"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
@@ -4440,8 +4440,8 @@
       <c r="G159" s="5">
         <v>157</v>
       </c>
-      <c r="H159" s="11"/>
-      <c r="I159" s="7"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="8"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
@@ -4465,8 +4465,8 @@
       <c r="G160" s="5">
         <v>158</v>
       </c>
-      <c r="H160" s="11"/>
-      <c r="I160" s="7"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="8"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
@@ -4490,8 +4490,8 @@
       <c r="G161" s="5">
         <v>159</v>
       </c>
-      <c r="H161" s="11"/>
-      <c r="I161" s="7"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="8"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
@@ -4515,8 +4515,8 @@
       <c r="G162" s="5">
         <v>160</v>
       </c>
-      <c r="H162" s="11"/>
-      <c r="I162" s="7"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="8"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
@@ -4540,8 +4540,8 @@
       <c r="G163" s="5">
         <v>161</v>
       </c>
-      <c r="H163" s="11"/>
-      <c r="I163" s="7"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="8"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
@@ -4565,8 +4565,8 @@
       <c r="G164" s="5">
         <v>162</v>
       </c>
-      <c r="H164" s="11"/>
-      <c r="I164" s="7"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="8"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
@@ -4590,8 +4590,8 @@
       <c r="G165" s="5">
         <v>163</v>
       </c>
-      <c r="H165" s="11"/>
-      <c r="I165" s="7"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="8"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
@@ -4615,8 +4615,8 @@
       <c r="G166" s="5">
         <v>164</v>
       </c>
-      <c r="H166" s="11"/>
-      <c r="I166" s="7"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="8"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
@@ -4640,8 +4640,8 @@
       <c r="G167" s="5">
         <v>165</v>
       </c>
-      <c r="H167" s="11"/>
-      <c r="I167" s="7"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="8"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
@@ -4665,8 +4665,8 @@
       <c r="G168" s="5">
         <v>166</v>
       </c>
-      <c r="H168" s="11"/>
-      <c r="I168" s="7"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="8"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
@@ -4690,8 +4690,8 @@
       <c r="G169" s="5">
         <v>167</v>
       </c>
-      <c r="H169" s="11"/>
-      <c r="I169" s="7"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="8"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
@@ -4715,8 +4715,8 @@
       <c r="G170" s="5">
         <v>168</v>
       </c>
-      <c r="H170" s="11"/>
-      <c r="I170" s="7"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="8"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
@@ -4740,8 +4740,8 @@
       <c r="G171" s="5">
         <v>169</v>
       </c>
-      <c r="H171" s="11"/>
-      <c r="I171" s="7"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
@@ -4765,8 +4765,8 @@
       <c r="G172" s="5">
         <v>170</v>
       </c>
-      <c r="H172" s="11"/>
-      <c r="I172" s="7"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="8"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
@@ -4790,8 +4790,8 @@
       <c r="G173" s="5">
         <v>171</v>
       </c>
-      <c r="H173" s="11"/>
-      <c r="I173" s="7"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="8"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
@@ -4815,8 +4815,8 @@
       <c r="G174" s="5">
         <v>172</v>
       </c>
-      <c r="H174" s="11"/>
-      <c r="I174" s="7"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="8"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
@@ -4840,8 +4840,8 @@
       <c r="G175" s="5">
         <v>173</v>
       </c>
-      <c r="H175" s="11"/>
-      <c r="I175" s="7"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="8"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
@@ -4865,8 +4865,8 @@
       <c r="G176" s="5">
         <v>174</v>
       </c>
-      <c r="H176" s="11"/>
-      <c r="I176" s="7"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="8"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
@@ -4890,8 +4890,8 @@
       <c r="G177" s="5">
         <v>175</v>
       </c>
-      <c r="H177" s="11"/>
-      <c r="I177" s="7"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="8"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
@@ -4915,8 +4915,8 @@
       <c r="G178" s="5">
         <v>176</v>
       </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="7"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="8"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
@@ -4940,8 +4940,8 @@
       <c r="G179" s="5">
         <v>177</v>
       </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="7"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="8"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
@@ -4965,8 +4965,8 @@
       <c r="G180" s="5">
         <v>178</v>
       </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="7"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="8"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
@@ -4990,8 +4990,8 @@
       <c r="G181" s="5">
         <v>179</v>
       </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="7"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="8"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
@@ -5015,8 +5015,8 @@
       <c r="G182" s="5">
         <v>180</v>
       </c>
-      <c r="H182" s="11"/>
-      <c r="I182" s="7"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="8"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
@@ -5040,8 +5040,8 @@
       <c r="G183" s="5">
         <v>181</v>
       </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="7"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="8"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
@@ -5065,8 +5065,8 @@
       <c r="G184" s="5">
         <v>182</v>
       </c>
-      <c r="H184" s="11"/>
-      <c r="I184" s="7"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="8"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
@@ -5090,8 +5090,8 @@
       <c r="G185" s="5">
         <v>183</v>
       </c>
-      <c r="H185" s="11"/>
-      <c r="I185" s="7"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="8"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
@@ -5115,8 +5115,8 @@
       <c r="G186" s="5">
         <v>184</v>
       </c>
-      <c r="H186" s="11"/>
-      <c r="I186" s="7"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="8"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
@@ -5140,8 +5140,8 @@
       <c r="G187" s="5">
         <v>185</v>
       </c>
-      <c r="H187" s="11"/>
-      <c r="I187" s="7"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="8"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
@@ -5165,8 +5165,8 @@
       <c r="G188" s="5">
         <v>186</v>
       </c>
-      <c r="H188" s="11"/>
-      <c r="I188" s="7"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="8"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
@@ -5190,8 +5190,8 @@
       <c r="G189" s="5">
         <v>187</v>
       </c>
-      <c r="H189" s="11"/>
-      <c r="I189" s="7"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="8"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
@@ -5215,8 +5215,8 @@
       <c r="G190" s="5">
         <v>188</v>
       </c>
-      <c r="H190" s="11"/>
-      <c r="I190" s="7"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="8"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
@@ -5240,8 +5240,8 @@
       <c r="G191" s="5">
         <v>189</v>
       </c>
-      <c r="H191" s="11"/>
-      <c r="I191" s="7"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="8"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
@@ -5265,8 +5265,8 @@
       <c r="G192" s="5">
         <v>190</v>
       </c>
-      <c r="H192" s="11"/>
-      <c r="I192" s="7"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="8"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
@@ -5290,8 +5290,8 @@
       <c r="G193" s="5">
         <v>191</v>
       </c>
-      <c r="H193" s="11"/>
-      <c r="I193" s="7"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="8"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
@@ -5315,8 +5315,8 @@
       <c r="G194" s="5">
         <v>192</v>
       </c>
-      <c r="H194" s="11"/>
-      <c r="I194" s="7"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="8"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
@@ -5340,8 +5340,8 @@
       <c r="G195" s="5">
         <v>193</v>
       </c>
-      <c r="H195" s="11"/>
-      <c r="I195" s="7"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="8"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
@@ -5365,8 +5365,8 @@
       <c r="G196" s="5">
         <v>194</v>
       </c>
-      <c r="H196" s="11"/>
-      <c r="I196" s="7"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="8"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
@@ -5390,8 +5390,8 @@
       <c r="G197" s="5">
         <v>195</v>
       </c>
-      <c r="H197" s="11"/>
-      <c r="I197" s="7"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="8"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
@@ -5415,8 +5415,8 @@
       <c r="G198" s="5">
         <v>196</v>
       </c>
-      <c r="H198" s="11"/>
-      <c r="I198" s="7"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="8"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
@@ -5440,8 +5440,8 @@
       <c r="G199" s="5">
         <v>197</v>
       </c>
-      <c r="H199" s="11"/>
-      <c r="I199" s="7"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="8"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
@@ -5465,8 +5465,8 @@
       <c r="G200" s="5">
         <v>198</v>
       </c>
-      <c r="H200" s="11"/>
-      <c r="I200" s="7"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="8"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
@@ -5490,8 +5490,8 @@
       <c r="G201" s="5">
         <v>199</v>
       </c>
-      <c r="H201" s="11"/>
-      <c r="I201" s="7"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="8"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
@@ -5745,10 +5745,10 @@
       <c r="G212" s="6">
         <v>210</v>
       </c>
-      <c r="H212" s="12" t="s">
+      <c r="H212" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I212" s="7" t="s">
+      <c r="I212" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5774,8 +5774,8 @@
       <c r="G213" s="6">
         <v>211</v>
       </c>
-      <c r="H213" s="12"/>
-      <c r="I213" s="7"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="8"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
@@ -5799,8 +5799,8 @@
       <c r="G214" s="6">
         <v>212</v>
       </c>
-      <c r="H214" s="12"/>
-      <c r="I214" s="7"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="8"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
@@ -5824,8 +5824,8 @@
       <c r="G215" s="6">
         <v>213</v>
       </c>
-      <c r="H215" s="12"/>
-      <c r="I215" s="7"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="8"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
@@ -5849,8 +5849,8 @@
       <c r="G216" s="6">
         <v>214</v>
       </c>
-      <c r="H216" s="12"/>
-      <c r="I216" s="7"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="8"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
@@ -5874,8 +5874,8 @@
       <c r="G217" s="6">
         <v>215</v>
       </c>
-      <c r="H217" s="12"/>
-      <c r="I217" s="7"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="8"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
@@ -5899,8 +5899,8 @@
       <c r="G218" s="6">
         <v>216</v>
       </c>
-      <c r="H218" s="12"/>
-      <c r="I218" s="7"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="8"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
@@ -5924,8 +5924,8 @@
       <c r="G219" s="6">
         <v>217</v>
       </c>
-      <c r="H219" s="12"/>
-      <c r="I219" s="7"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="8"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
@@ -5949,8 +5949,8 @@
       <c r="G220" s="6">
         <v>218</v>
       </c>
-      <c r="H220" s="12"/>
-      <c r="I220" s="7"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="8"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
@@ -5974,8 +5974,8 @@
       <c r="G221" s="6">
         <v>219</v>
       </c>
-      <c r="H221" s="12"/>
-      <c r="I221" s="7"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="8"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
@@ -5999,8 +5999,8 @@
       <c r="G222" s="6">
         <v>220</v>
       </c>
-      <c r="H222" s="12"/>
-      <c r="I222" s="7"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="8"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
@@ -6024,8 +6024,8 @@
       <c r="G223" s="6">
         <v>221</v>
       </c>
-      <c r="H223" s="12"/>
-      <c r="I223" s="7"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="8"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
@@ -6049,8 +6049,8 @@
       <c r="G224" s="6">
         <v>222</v>
       </c>
-      <c r="H224" s="12"/>
-      <c r="I224" s="7"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="8"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
@@ -6074,8 +6074,8 @@
       <c r="G225" s="6">
         <v>223</v>
       </c>
-      <c r="H225" s="12"/>
-      <c r="I225" s="7"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="8"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
@@ -6099,8 +6099,8 @@
       <c r="G226" s="6">
         <v>224</v>
       </c>
-      <c r="H226" s="12"/>
-      <c r="I226" s="7"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="8"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
@@ -6124,8 +6124,8 @@
       <c r="G227" s="6">
         <v>225</v>
       </c>
-      <c r="H227" s="12"/>
-      <c r="I227" s="7"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="8"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
@@ -6149,8 +6149,8 @@
       <c r="G228" s="6">
         <v>226</v>
       </c>
-      <c r="H228" s="12"/>
-      <c r="I228" s="7"/>
+      <c r="H228" s="13"/>
+      <c r="I228" s="8"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
@@ -6174,8 +6174,8 @@
       <c r="G229" s="6">
         <v>227</v>
       </c>
-      <c r="H229" s="12"/>
-      <c r="I229" s="7"/>
+      <c r="H229" s="13"/>
+      <c r="I229" s="8"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
@@ -6199,8 +6199,8 @@
       <c r="G230" s="6">
         <v>228</v>
       </c>
-      <c r="H230" s="12"/>
-      <c r="I230" s="7"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="8"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
@@ -6224,8 +6224,8 @@
       <c r="G231" s="6">
         <v>229</v>
       </c>
-      <c r="H231" s="12"/>
-      <c r="I231" s="7"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="8"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
@@ -6249,8 +6249,8 @@
       <c r="G232" s="6">
         <v>230</v>
       </c>
-      <c r="H232" s="12"/>
-      <c r="I232" s="7"/>
+      <c r="H232" s="13"/>
+      <c r="I232" s="8"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
@@ -6274,8 +6274,8 @@
       <c r="G233" s="6">
         <v>231</v>
       </c>
-      <c r="H233" s="12"/>
-      <c r="I233" s="7"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="8"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
@@ -6299,8 +6299,8 @@
       <c r="G234" s="6">
         <v>232</v>
       </c>
-      <c r="H234" s="12"/>
-      <c r="I234" s="7"/>
+      <c r="H234" s="13"/>
+      <c r="I234" s="8"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
@@ -6324,8 +6324,8 @@
       <c r="G235" s="6">
         <v>233</v>
       </c>
-      <c r="H235" s="12"/>
-      <c r="I235" s="7"/>
+      <c r="H235" s="13"/>
+      <c r="I235" s="8"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
@@ -6349,8 +6349,8 @@
       <c r="G236" s="6">
         <v>234</v>
       </c>
-      <c r="H236" s="12"/>
-      <c r="I236" s="7"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="8"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
@@ -6374,8 +6374,8 @@
       <c r="G237" s="6">
         <v>235</v>
       </c>
-      <c r="H237" s="12"/>
-      <c r="I237" s="7"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="8"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
@@ -6399,8 +6399,8 @@
       <c r="G238" s="6">
         <v>236</v>
       </c>
-      <c r="H238" s="12"/>
-      <c r="I238" s="7"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="8"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
@@ -6424,8 +6424,8 @@
       <c r="G239" s="6">
         <v>237</v>
       </c>
-      <c r="H239" s="12"/>
-      <c r="I239" s="7"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="8"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
@@ -6449,8 +6449,8 @@
       <c r="G240" s="6">
         <v>238</v>
       </c>
-      <c r="H240" s="12"/>
-      <c r="I240" s="7"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="8"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
@@ -6474,8 +6474,8 @@
       <c r="G241" s="6">
         <v>239</v>
       </c>
-      <c r="H241" s="12"/>
-      <c r="I241" s="7"/>
+      <c r="H241" s="13"/>
+      <c r="I241" s="8"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
@@ -6499,8 +6499,8 @@
       <c r="G242" s="6">
         <v>240</v>
       </c>
-      <c r="H242" s="12"/>
-      <c r="I242" s="7"/>
+      <c r="H242" s="13"/>
+      <c r="I242" s="8"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
@@ -6524,8 +6524,8 @@
       <c r="G243" s="6">
         <v>241</v>
       </c>
-      <c r="H243" s="12"/>
-      <c r="I243" s="7"/>
+      <c r="H243" s="13"/>
+      <c r="I243" s="8"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
@@ -6549,8 +6549,8 @@
       <c r="G244" s="6">
         <v>242</v>
       </c>
-      <c r="H244" s="12"/>
-      <c r="I244" s="7"/>
+      <c r="H244" s="13"/>
+      <c r="I244" s="8"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
@@ -6574,8 +6574,8 @@
       <c r="G245" s="6">
         <v>243</v>
       </c>
-      <c r="H245" s="12"/>
-      <c r="I245" s="7"/>
+      <c r="H245" s="13"/>
+      <c r="I245" s="8"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
@@ -6599,8 +6599,8 @@
       <c r="G246" s="6">
         <v>244</v>
       </c>
-      <c r="H246" s="12"/>
-      <c r="I246" s="7"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="8"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
@@ -6624,8 +6624,8 @@
       <c r="G247" s="6">
         <v>245</v>
       </c>
-      <c r="H247" s="12"/>
-      <c r="I247" s="7"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="8"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
@@ -6649,8 +6649,8 @@
       <c r="G248" s="6">
         <v>246</v>
       </c>
-      <c r="H248" s="12"/>
-      <c r="I248" s="7"/>
+      <c r="H248" s="13"/>
+      <c r="I248" s="8"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
@@ -6674,8 +6674,8 @@
       <c r="G249" s="6">
         <v>247</v>
       </c>
-      <c r="H249" s="12"/>
-      <c r="I249" s="7"/>
+      <c r="H249" s="13"/>
+      <c r="I249" s="8"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
@@ -6699,8 +6699,8 @@
       <c r="G250" s="6">
         <v>248</v>
       </c>
-      <c r="H250" s="12"/>
-      <c r="I250" s="7"/>
+      <c r="H250" s="13"/>
+      <c r="I250" s="8"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
@@ -6724,8 +6724,8 @@
       <c r="G251" s="6">
         <v>249</v>
       </c>
-      <c r="H251" s="12"/>
-      <c r="I251" s="7"/>
+      <c r="H251" s="13"/>
+      <c r="I251" s="8"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
@@ -6749,8 +6749,8 @@
       <c r="G252" s="6">
         <v>250</v>
       </c>
-      <c r="H252" s="12"/>
-      <c r="I252" s="7"/>
+      <c r="H252" s="13"/>
+      <c r="I252" s="8"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
@@ -6774,8 +6774,8 @@
       <c r="G253" s="6">
         <v>251</v>
       </c>
-      <c r="H253" s="12"/>
-      <c r="I253" s="7"/>
+      <c r="H253" s="13"/>
+      <c r="I253" s="8"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
@@ -6799,8 +6799,8 @@
       <c r="G254" s="6">
         <v>252</v>
       </c>
-      <c r="H254" s="12"/>
-      <c r="I254" s="7"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="8"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
@@ -6824,8 +6824,8 @@
       <c r="G255" s="6">
         <v>253</v>
       </c>
-      <c r="H255" s="12"/>
-      <c r="I255" s="7"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="8"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
@@ -6849,8 +6849,8 @@
       <c r="G256" s="6">
         <v>254</v>
       </c>
-      <c r="H256" s="12"/>
-      <c r="I256" s="7"/>
+      <c r="H256" s="13"/>
+      <c r="I256" s="8"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
@@ -6874,8 +6874,8 @@
       <c r="G257" s="6">
         <v>255</v>
       </c>
-      <c r="H257" s="12"/>
-      <c r="I257" s="7"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Rozsahy adres.xlsx
+++ b/Rozsahy adres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{08F1AC71-8921-49B0-BA5F-0B2479CFDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25BF324-89A4-470D-9ABE-49075C4000D1}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{08F1AC71-8921-49B0-BA5F-0B2479CFDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D216478A-A649-4644-B0F7-78D39BB15B51}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAA66BB9-4D9F-458E-A231-BA7B97C149C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="27">
   <si>
     <t>.</t>
   </si>
@@ -204,9 +204,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -216,13 +213,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558457E2-7356-48E1-B13E-D255B032A534}">
   <dimension ref="A2:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,6 +555,15 @@
     <col min="6" max="6" width="1.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -605,7 +614,7 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -634,7 +643,7 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="I4" t="s">
         <v>6</v>
       </c>
@@ -661,7 +670,7 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -685,7 +694,7 @@
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -709,7 +718,7 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -733,7 +742,7 @@
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -757,7 +766,7 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -781,7 +790,7 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -805,7 +814,7 @@
       <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -949,7 +958,7 @@
       <c r="G17" s="3">
         <v>15</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I17" t="s">
@@ -978,7 +987,7 @@
       <c r="G18" s="3">
         <v>16</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1002,7 +1011,7 @@
       <c r="G19" s="3">
         <v>17</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1026,7 +1035,7 @@
       <c r="G20" s="3">
         <v>18</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1050,7 +1059,7 @@
       <c r="G21" s="3">
         <v>19</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -1074,7 +1083,7 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1098,7 +1107,7 @@
       <c r="G23" s="3">
         <v>21</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -1122,7 +1131,7 @@
       <c r="G24" s="3">
         <v>22</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1146,7 +1155,7 @@
       <c r="G25" s="3">
         <v>23</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1170,7 +1179,7 @@
       <c r="G26" s="3">
         <v>24</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1194,7 +1203,7 @@
       <c r="G27" s="3">
         <v>25</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1314,7 +1323,7 @@
       <c r="G32" s="4">
         <v>30</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I32" t="s">
@@ -1343,7 +1352,7 @@
       <c r="G33" s="4">
         <v>31</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="9"/>
       <c r="I33" t="s">
         <v>19</v>
       </c>
@@ -1370,7 +1379,7 @@
       <c r="G34" s="4">
         <v>32</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="9"/>
       <c r="I34" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1406,7 @@
       <c r="G35" s="4">
         <v>33</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="9"/>
       <c r="I35" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1433,7 @@
       <c r="G36" s="4">
         <v>34</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="9"/>
       <c r="I36" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1460,7 @@
       <c r="G37" s="4">
         <v>35</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="9"/>
       <c r="I37" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1487,7 @@
       <c r="G38" s="4">
         <v>36</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="9"/>
       <c r="I38" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1514,7 @@
       <c r="G39" s="4">
         <v>37</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="9"/>
       <c r="I39" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1541,7 @@
       <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="9"/>
       <c r="I40" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1568,7 @@
       <c r="G41" s="4">
         <v>39</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -1583,7 +1592,7 @@
       <c r="G42" s="4">
         <v>40</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -1607,7 +1616,7 @@
       <c r="G43" s="4">
         <v>41</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -1631,7 +1640,7 @@
       <c r="G44" s="4">
         <v>42</v>
       </c>
-      <c r="H44" s="10"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -1655,7 +1664,7 @@
       <c r="G45" s="4">
         <v>43</v>
       </c>
-      <c r="H45" s="10"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -1679,7 +1688,7 @@
       <c r="G46" s="4">
         <v>44</v>
       </c>
-      <c r="H46" s="10"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -1703,7 +1712,7 @@
       <c r="G47" s="4">
         <v>45</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -1727,7 +1736,7 @@
       <c r="G48" s="4">
         <v>46</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -1751,7 +1760,7 @@
       <c r="G49" s="4">
         <v>47</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -1775,7 +1784,7 @@
       <c r="G50" s="4">
         <v>48</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -1799,7 +1808,7 @@
       <c r="G51" s="4">
         <v>49</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -1823,7 +1832,7 @@
       <c r="G52" s="4">
         <v>50</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -1847,7 +1856,7 @@
       <c r="G53" s="4">
         <v>51</v>
       </c>
-      <c r="H53" s="10"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -1871,7 +1880,7 @@
       <c r="G54" s="4">
         <v>52</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -1895,7 +1904,7 @@
       <c r="G55" s="4">
         <v>53</v>
       </c>
-      <c r="H55" s="10"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -1919,7 +1928,7 @@
       <c r="G56" s="4">
         <v>54</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -1943,7 +1952,7 @@
       <c r="G57" s="4">
         <v>55</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -1967,7 +1976,7 @@
       <c r="G58" s="4">
         <v>56</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -1991,7 +2000,7 @@
       <c r="G59" s="4">
         <v>57</v>
       </c>
-      <c r="H59" s="10"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -2015,7 +2024,7 @@
       <c r="G60" s="4">
         <v>58</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -2039,7 +2048,7 @@
       <c r="G61" s="4">
         <v>59</v>
       </c>
-      <c r="H61" s="10"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -2293,7 +2302,7 @@
       <c r="G72" s="7">
         <v>70</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I72" t="s">
@@ -2322,7 +2331,7 @@
       <c r="G73" s="7">
         <v>71</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="11"/>
       <c r="I73" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2358,7 @@
       <c r="G74" s="7">
         <v>72</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="11"/>
       <c r="I74" t="s">
         <v>12</v>
       </c>
@@ -2376,7 +2385,7 @@
       <c r="G75" s="7">
         <v>73</v>
       </c>
-      <c r="H75" s="14"/>
+      <c r="H75" s="11"/>
       <c r="I75" t="s">
         <v>13</v>
       </c>
@@ -2403,7 +2412,7 @@
       <c r="G76" s="7">
         <v>74</v>
       </c>
-      <c r="H76" s="14"/>
+      <c r="H76" s="11"/>
       <c r="I76" t="s">
         <v>14</v>
       </c>
@@ -2430,7 +2439,7 @@
       <c r="G77" s="7">
         <v>75</v>
       </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
@@ -2454,7 +2463,7 @@
       <c r="G78" s="7">
         <v>76</v>
       </c>
-      <c r="H78" s="14"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
@@ -2478,7 +2487,7 @@
       <c r="G79" s="7">
         <v>77</v>
       </c>
-      <c r="H79" s="14"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
@@ -2502,7 +2511,7 @@
       <c r="G80" s="7">
         <v>78</v>
       </c>
-      <c r="H80" s="14"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
@@ -2526,7 +2535,7 @@
       <c r="G81" s="7">
         <v>79</v>
       </c>
-      <c r="H81" s="14"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
@@ -2550,7 +2559,7 @@
       <c r="G82" s="7">
         <v>80</v>
       </c>
-      <c r="H82" s="14"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -2621,7 +2630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>192</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>192</v>
       </c>
@@ -3014,7 +3023,7 @@
       <c r="H102" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="8" t="s">
+      <c r="I102" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3041,7 +3050,7 @@
         <v>101</v>
       </c>
       <c r="H103" s="12"/>
-      <c r="I103" s="8"/>
+      <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
@@ -3066,7 +3075,7 @@
         <v>102</v>
       </c>
       <c r="H104" s="12"/>
-      <c r="I104" s="8"/>
+      <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
@@ -3091,7 +3100,7 @@
         <v>103</v>
       </c>
       <c r="H105" s="12"/>
-      <c r="I105" s="8"/>
+      <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
@@ -3116,7 +3125,7 @@
         <v>104</v>
       </c>
       <c r="H106" s="12"/>
-      <c r="I106" s="8"/>
+      <c r="I106" s="13"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
@@ -3141,7 +3150,7 @@
         <v>105</v>
       </c>
       <c r="H107" s="12"/>
-      <c r="I107" s="8"/>
+      <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
@@ -3166,7 +3175,7 @@
         <v>106</v>
       </c>
       <c r="H108" s="12"/>
-      <c r="I108" s="8"/>
+      <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
@@ -3191,7 +3200,7 @@
         <v>107</v>
       </c>
       <c r="H109" s="12"/>
-      <c r="I109" s="8"/>
+      <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
@@ -3216,7 +3225,7 @@
         <v>108</v>
       </c>
       <c r="H110" s="12"/>
-      <c r="I110" s="8"/>
+      <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
@@ -3241,7 +3250,7 @@
         <v>109</v>
       </c>
       <c r="H111" s="12"/>
-      <c r="I111" s="8"/>
+      <c r="I111" s="13"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
@@ -3266,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="H112" s="12"/>
-      <c r="I112" s="8"/>
+      <c r="I112" s="13"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
@@ -3291,7 +3300,7 @@
         <v>111</v>
       </c>
       <c r="H113" s="12"/>
-      <c r="I113" s="8"/>
+      <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
@@ -3316,7 +3325,7 @@
         <v>112</v>
       </c>
       <c r="H114" s="12"/>
-      <c r="I114" s="8"/>
+      <c r="I114" s="13"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
@@ -3341,7 +3350,7 @@
         <v>113</v>
       </c>
       <c r="H115" s="12"/>
-      <c r="I115" s="8"/>
+      <c r="I115" s="13"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
@@ -3366,7 +3375,7 @@
         <v>114</v>
       </c>
       <c r="H116" s="12"/>
-      <c r="I116" s="8"/>
+      <c r="I116" s="13"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
@@ -3391,7 +3400,7 @@
         <v>115</v>
       </c>
       <c r="H117" s="12"/>
-      <c r="I117" s="8"/>
+      <c r="I117" s="13"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
@@ -3416,7 +3425,7 @@
         <v>116</v>
       </c>
       <c r="H118" s="12"/>
-      <c r="I118" s="8"/>
+      <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
@@ -3441,7 +3450,7 @@
         <v>117</v>
       </c>
       <c r="H119" s="12"/>
-      <c r="I119" s="8"/>
+      <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
@@ -3466,7 +3475,7 @@
         <v>118</v>
       </c>
       <c r="H120" s="12"/>
-      <c r="I120" s="8"/>
+      <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
@@ -3491,7 +3500,7 @@
         <v>119</v>
       </c>
       <c r="H121" s="12"/>
-      <c r="I121" s="8"/>
+      <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
@@ -3516,7 +3525,7 @@
         <v>120</v>
       </c>
       <c r="H122" s="12"/>
-      <c r="I122" s="8"/>
+      <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
@@ -3541,7 +3550,7 @@
         <v>121</v>
       </c>
       <c r="H123" s="12"/>
-      <c r="I123" s="8"/>
+      <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
@@ -3566,7 +3575,7 @@
         <v>122</v>
       </c>
       <c r="H124" s="12"/>
-      <c r="I124" s="8"/>
+      <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
@@ -3591,7 +3600,7 @@
         <v>123</v>
       </c>
       <c r="H125" s="12"/>
-      <c r="I125" s="8"/>
+      <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
@@ -3616,7 +3625,7 @@
         <v>124</v>
       </c>
       <c r="H126" s="12"/>
-      <c r="I126" s="8"/>
+      <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
@@ -3641,7 +3650,7 @@
         <v>125</v>
       </c>
       <c r="H127" s="12"/>
-      <c r="I127" s="8"/>
+      <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
@@ -3666,7 +3675,7 @@
         <v>126</v>
       </c>
       <c r="H128" s="12"/>
-      <c r="I128" s="8"/>
+      <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
@@ -3690,8 +3699,12 @@
       <c r="G129" s="5">
         <v>127</v>
       </c>
-      <c r="H129" s="12"/>
-      <c r="I129" s="8"/>
+      <c r="H129" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
@@ -3716,7 +3729,7 @@
         <v>128</v>
       </c>
       <c r="H130" s="12"/>
-      <c r="I130" s="8"/>
+      <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
@@ -3741,7 +3754,7 @@
         <v>129</v>
       </c>
       <c r="H131" s="12"/>
-      <c r="I131" s="8"/>
+      <c r="I131" s="13"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
@@ -3766,7 +3779,7 @@
         <v>130</v>
       </c>
       <c r="H132" s="12"/>
-      <c r="I132" s="8"/>
+      <c r="I132" s="13"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
@@ -3791,7 +3804,7 @@
         <v>131</v>
       </c>
       <c r="H133" s="12"/>
-      <c r="I133" s="8"/>
+      <c r="I133" s="13"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
@@ -3816,7 +3829,7 @@
         <v>132</v>
       </c>
       <c r="H134" s="12"/>
-      <c r="I134" s="8"/>
+      <c r="I134" s="13"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
@@ -3841,7 +3854,7 @@
         <v>133</v>
       </c>
       <c r="H135" s="12"/>
-      <c r="I135" s="8"/>
+      <c r="I135" s="13"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
@@ -3866,7 +3879,7 @@
         <v>134</v>
       </c>
       <c r="H136" s="12"/>
-      <c r="I136" s="8"/>
+      <c r="I136" s="13"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
@@ -3891,7 +3904,7 @@
         <v>135</v>
       </c>
       <c r="H137" s="12"/>
-      <c r="I137" s="8"/>
+      <c r="I137" s="13"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
@@ -3916,7 +3929,7 @@
         <v>136</v>
       </c>
       <c r="H138" s="12"/>
-      <c r="I138" s="8"/>
+      <c r="I138" s="13"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
@@ -3941,7 +3954,7 @@
         <v>137</v>
       </c>
       <c r="H139" s="12"/>
-      <c r="I139" s="8"/>
+      <c r="I139" s="13"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
@@ -3966,7 +3979,7 @@
         <v>138</v>
       </c>
       <c r="H140" s="12"/>
-      <c r="I140" s="8"/>
+      <c r="I140" s="13"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
@@ -3991,7 +4004,7 @@
         <v>139</v>
       </c>
       <c r="H141" s="12"/>
-      <c r="I141" s="8"/>
+      <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
@@ -4016,7 +4029,7 @@
         <v>140</v>
       </c>
       <c r="H142" s="12"/>
-      <c r="I142" s="8"/>
+      <c r="I142" s="13"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
@@ -4041,7 +4054,7 @@
         <v>141</v>
       </c>
       <c r="H143" s="12"/>
-      <c r="I143" s="8"/>
+      <c r="I143" s="13"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
@@ -4066,7 +4079,7 @@
         <v>142</v>
       </c>
       <c r="H144" s="12"/>
-      <c r="I144" s="8"/>
+      <c r="I144" s="13"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
@@ -4091,7 +4104,7 @@
         <v>143</v>
       </c>
       <c r="H145" s="12"/>
-      <c r="I145" s="8"/>
+      <c r="I145" s="13"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
@@ -4116,7 +4129,7 @@
         <v>144</v>
       </c>
       <c r="H146" s="12"/>
-      <c r="I146" s="8"/>
+      <c r="I146" s="13"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
@@ -4141,7 +4154,7 @@
         <v>145</v>
       </c>
       <c r="H147" s="12"/>
-      <c r="I147" s="8"/>
+      <c r="I147" s="13"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
@@ -4166,7 +4179,7 @@
         <v>146</v>
       </c>
       <c r="H148" s="12"/>
-      <c r="I148" s="8"/>
+      <c r="I148" s="13"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
@@ -4191,7 +4204,7 @@
         <v>147</v>
       </c>
       <c r="H149" s="12"/>
-      <c r="I149" s="8"/>
+      <c r="I149" s="13"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
@@ -4216,7 +4229,7 @@
         <v>148</v>
       </c>
       <c r="H150" s="12"/>
-      <c r="I150" s="8"/>
+      <c r="I150" s="13"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
@@ -4241,7 +4254,7 @@
         <v>149</v>
       </c>
       <c r="H151" s="12"/>
-      <c r="I151" s="8"/>
+      <c r="I151" s="13"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
@@ -4266,7 +4279,7 @@
         <v>150</v>
       </c>
       <c r="H152" s="12"/>
-      <c r="I152" s="8"/>
+      <c r="I152" s="13"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
@@ -4291,7 +4304,7 @@
         <v>151</v>
       </c>
       <c r="H153" s="12"/>
-      <c r="I153" s="8"/>
+      <c r="I153" s="13"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
@@ -4316,7 +4329,7 @@
         <v>152</v>
       </c>
       <c r="H154" s="12"/>
-      <c r="I154" s="8"/>
+      <c r="I154" s="13"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
@@ -4341,7 +4354,7 @@
         <v>153</v>
       </c>
       <c r="H155" s="12"/>
-      <c r="I155" s="8"/>
+      <c r="I155" s="13"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
@@ -4366,7 +4379,7 @@
         <v>154</v>
       </c>
       <c r="H156" s="12"/>
-      <c r="I156" s="8"/>
+      <c r="I156" s="13"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
@@ -4391,7 +4404,7 @@
         <v>155</v>
       </c>
       <c r="H157" s="12"/>
-      <c r="I157" s="8"/>
+      <c r="I157" s="13"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
@@ -4416,7 +4429,7 @@
         <v>156</v>
       </c>
       <c r="H158" s="12"/>
-      <c r="I158" s="8"/>
+      <c r="I158" s="13"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
@@ -4441,7 +4454,7 @@
         <v>157</v>
       </c>
       <c r="H159" s="12"/>
-      <c r="I159" s="8"/>
+      <c r="I159" s="13"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
@@ -4466,7 +4479,7 @@
         <v>158</v>
       </c>
       <c r="H160" s="12"/>
-      <c r="I160" s="8"/>
+      <c r="I160" s="13"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
@@ -4491,7 +4504,7 @@
         <v>159</v>
       </c>
       <c r="H161" s="12"/>
-      <c r="I161" s="8"/>
+      <c r="I161" s="13"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
@@ -4516,7 +4529,7 @@
         <v>160</v>
       </c>
       <c r="H162" s="12"/>
-      <c r="I162" s="8"/>
+      <c r="I162" s="13"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
@@ -4541,7 +4554,7 @@
         <v>161</v>
       </c>
       <c r="H163" s="12"/>
-      <c r="I163" s="8"/>
+      <c r="I163" s="13"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
@@ -4566,7 +4579,7 @@
         <v>162</v>
       </c>
       <c r="H164" s="12"/>
-      <c r="I164" s="8"/>
+      <c r="I164" s="13"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
@@ -4591,7 +4604,7 @@
         <v>163</v>
       </c>
       <c r="H165" s="12"/>
-      <c r="I165" s="8"/>
+      <c r="I165" s="13"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
@@ -4616,7 +4629,7 @@
         <v>164</v>
       </c>
       <c r="H166" s="12"/>
-      <c r="I166" s="8"/>
+      <c r="I166" s="13"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
@@ -4641,7 +4654,7 @@
         <v>165</v>
       </c>
       <c r="H167" s="12"/>
-      <c r="I167" s="8"/>
+      <c r="I167" s="13"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
@@ -4666,7 +4679,7 @@
         <v>166</v>
       </c>
       <c r="H168" s="12"/>
-      <c r="I168" s="8"/>
+      <c r="I168" s="13"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
@@ -4691,7 +4704,7 @@
         <v>167</v>
       </c>
       <c r="H169" s="12"/>
-      <c r="I169" s="8"/>
+      <c r="I169" s="13"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
@@ -4716,7 +4729,7 @@
         <v>168</v>
       </c>
       <c r="H170" s="12"/>
-      <c r="I170" s="8"/>
+      <c r="I170" s="13"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
@@ -4741,7 +4754,7 @@
         <v>169</v>
       </c>
       <c r="H171" s="12"/>
-      <c r="I171" s="8"/>
+      <c r="I171" s="13"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
@@ -4766,7 +4779,7 @@
         <v>170</v>
       </c>
       <c r="H172" s="12"/>
-      <c r="I172" s="8"/>
+      <c r="I172" s="13"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
@@ -4791,7 +4804,7 @@
         <v>171</v>
       </c>
       <c r="H173" s="12"/>
-      <c r="I173" s="8"/>
+      <c r="I173" s="13"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
@@ -4816,7 +4829,7 @@
         <v>172</v>
       </c>
       <c r="H174" s="12"/>
-      <c r="I174" s="8"/>
+      <c r="I174" s="13"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
@@ -4841,7 +4854,7 @@
         <v>173</v>
       </c>
       <c r="H175" s="12"/>
-      <c r="I175" s="8"/>
+      <c r="I175" s="13"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
@@ -4866,7 +4879,7 @@
         <v>174</v>
       </c>
       <c r="H176" s="12"/>
-      <c r="I176" s="8"/>
+      <c r="I176" s="13"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
@@ -4891,7 +4904,7 @@
         <v>175</v>
       </c>
       <c r="H177" s="12"/>
-      <c r="I177" s="8"/>
+      <c r="I177" s="13"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
@@ -4916,7 +4929,7 @@
         <v>176</v>
       </c>
       <c r="H178" s="12"/>
-      <c r="I178" s="8"/>
+      <c r="I178" s="13"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
@@ -4941,7 +4954,7 @@
         <v>177</v>
       </c>
       <c r="H179" s="12"/>
-      <c r="I179" s="8"/>
+      <c r="I179" s="13"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
@@ -4966,7 +4979,7 @@
         <v>178</v>
       </c>
       <c r="H180" s="12"/>
-      <c r="I180" s="8"/>
+      <c r="I180" s="13"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
@@ -4991,7 +5004,7 @@
         <v>179</v>
       </c>
       <c r="H181" s="12"/>
-      <c r="I181" s="8"/>
+      <c r="I181" s="13"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
@@ -5016,7 +5029,7 @@
         <v>180</v>
       </c>
       <c r="H182" s="12"/>
-      <c r="I182" s="8"/>
+      <c r="I182" s="13"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
@@ -5041,7 +5054,7 @@
         <v>181</v>
       </c>
       <c r="H183" s="12"/>
-      <c r="I183" s="8"/>
+      <c r="I183" s="13"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
@@ -5066,7 +5079,7 @@
         <v>182</v>
       </c>
       <c r="H184" s="12"/>
-      <c r="I184" s="8"/>
+      <c r="I184" s="13"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
@@ -5091,7 +5104,7 @@
         <v>183</v>
       </c>
       <c r="H185" s="12"/>
-      <c r="I185" s="8"/>
+      <c r="I185" s="13"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
@@ -5116,7 +5129,7 @@
         <v>184</v>
       </c>
       <c r="H186" s="12"/>
-      <c r="I186" s="8"/>
+      <c r="I186" s="13"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
@@ -5141,7 +5154,7 @@
         <v>185</v>
       </c>
       <c r="H187" s="12"/>
-      <c r="I187" s="8"/>
+      <c r="I187" s="13"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
@@ -5166,7 +5179,7 @@
         <v>186</v>
       </c>
       <c r="H188" s="12"/>
-      <c r="I188" s="8"/>
+      <c r="I188" s="13"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
@@ -5191,7 +5204,7 @@
         <v>187</v>
       </c>
       <c r="H189" s="12"/>
-      <c r="I189" s="8"/>
+      <c r="I189" s="13"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
@@ -5216,7 +5229,7 @@
         <v>188</v>
       </c>
       <c r="H190" s="12"/>
-      <c r="I190" s="8"/>
+      <c r="I190" s="13"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
@@ -5241,7 +5254,7 @@
         <v>189</v>
       </c>
       <c r="H191" s="12"/>
-      <c r="I191" s="8"/>
+      <c r="I191" s="13"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
@@ -5266,7 +5279,7 @@
         <v>190</v>
       </c>
       <c r="H192" s="12"/>
-      <c r="I192" s="8"/>
+      <c r="I192" s="13"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
@@ -5291,7 +5304,7 @@
         <v>191</v>
       </c>
       <c r="H193" s="12"/>
-      <c r="I193" s="8"/>
+      <c r="I193" s="13"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
@@ -5316,7 +5329,7 @@
         <v>192</v>
       </c>
       <c r="H194" s="12"/>
-      <c r="I194" s="8"/>
+      <c r="I194" s="13"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
@@ -5341,7 +5354,7 @@
         <v>193</v>
       </c>
       <c r="H195" s="12"/>
-      <c r="I195" s="8"/>
+      <c r="I195" s="13"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
@@ -5366,7 +5379,7 @@
         <v>194</v>
       </c>
       <c r="H196" s="12"/>
-      <c r="I196" s="8"/>
+      <c r="I196" s="13"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
@@ -5391,7 +5404,7 @@
         <v>195</v>
       </c>
       <c r="H197" s="12"/>
-      <c r="I197" s="8"/>
+      <c r="I197" s="13"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
@@ -5416,7 +5429,7 @@
         <v>196</v>
       </c>
       <c r="H198" s="12"/>
-      <c r="I198" s="8"/>
+      <c r="I198" s="13"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
@@ -5441,7 +5454,7 @@
         <v>197</v>
       </c>
       <c r="H199" s="12"/>
-      <c r="I199" s="8"/>
+      <c r="I199" s="13"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
@@ -5466,7 +5479,7 @@
         <v>198</v>
       </c>
       <c r="H200" s="12"/>
-      <c r="I200" s="8"/>
+      <c r="I200" s="13"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
@@ -5491,7 +5504,7 @@
         <v>199</v>
       </c>
       <c r="H201" s="12"/>
-      <c r="I201" s="8"/>
+      <c r="I201" s="13"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
@@ -5745,10 +5758,10 @@
       <c r="G212" s="6">
         <v>210</v>
       </c>
-      <c r="H212" s="13" t="s">
+      <c r="H212" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I212" s="8" t="s">
+      <c r="I212" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5774,8 +5787,8 @@
       <c r="G213" s="6">
         <v>211</v>
       </c>
-      <c r="H213" s="13"/>
-      <c r="I213" s="8"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="13"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
@@ -5799,8 +5812,8 @@
       <c r="G214" s="6">
         <v>212</v>
       </c>
-      <c r="H214" s="13"/>
-      <c r="I214" s="8"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="13"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
@@ -5824,8 +5837,8 @@
       <c r="G215" s="6">
         <v>213</v>
       </c>
-      <c r="H215" s="13"/>
-      <c r="I215" s="8"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="13"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
@@ -5849,8 +5862,8 @@
       <c r="G216" s="6">
         <v>214</v>
       </c>
-      <c r="H216" s="13"/>
-      <c r="I216" s="8"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="13"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
@@ -5874,8 +5887,8 @@
       <c r="G217" s="6">
         <v>215</v>
       </c>
-      <c r="H217" s="13"/>
-      <c r="I217" s="8"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="13"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
@@ -5899,8 +5912,8 @@
       <c r="G218" s="6">
         <v>216</v>
       </c>
-      <c r="H218" s="13"/>
-      <c r="I218" s="8"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="13"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
@@ -5924,8 +5937,8 @@
       <c r="G219" s="6">
         <v>217</v>
       </c>
-      <c r="H219" s="13"/>
-      <c r="I219" s="8"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="13"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
@@ -5949,8 +5962,8 @@
       <c r="G220" s="6">
         <v>218</v>
       </c>
-      <c r="H220" s="13"/>
-      <c r="I220" s="8"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="13"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
@@ -5974,8 +5987,8 @@
       <c r="G221" s="6">
         <v>219</v>
       </c>
-      <c r="H221" s="13"/>
-      <c r="I221" s="8"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="13"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
@@ -5999,8 +6012,8 @@
       <c r="G222" s="6">
         <v>220</v>
       </c>
-      <c r="H222" s="13"/>
-      <c r="I222" s="8"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="13"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
@@ -6024,8 +6037,8 @@
       <c r="G223" s="6">
         <v>221</v>
       </c>
-      <c r="H223" s="13"/>
-      <c r="I223" s="8"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="13"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
@@ -6049,8 +6062,8 @@
       <c r="G224" s="6">
         <v>222</v>
       </c>
-      <c r="H224" s="13"/>
-      <c r="I224" s="8"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="13"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
@@ -6074,8 +6087,8 @@
       <c r="G225" s="6">
         <v>223</v>
       </c>
-      <c r="H225" s="13"/>
-      <c r="I225" s="8"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="13"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
@@ -6099,8 +6112,8 @@
       <c r="G226" s="6">
         <v>224</v>
       </c>
-      <c r="H226" s="13"/>
-      <c r="I226" s="8"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="13"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
@@ -6124,8 +6137,8 @@
       <c r="G227" s="6">
         <v>225</v>
       </c>
-      <c r="H227" s="13"/>
-      <c r="I227" s="8"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="13"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
@@ -6149,8 +6162,8 @@
       <c r="G228" s="6">
         <v>226</v>
       </c>
-      <c r="H228" s="13"/>
-      <c r="I228" s="8"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="13"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
@@ -6174,8 +6187,8 @@
       <c r="G229" s="6">
         <v>227</v>
       </c>
-      <c r="H229" s="13"/>
-      <c r="I229" s="8"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="13"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
@@ -6199,8 +6212,8 @@
       <c r="G230" s="6">
         <v>228</v>
       </c>
-      <c r="H230" s="13"/>
-      <c r="I230" s="8"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="13"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
@@ -6224,8 +6237,8 @@
       <c r="G231" s="6">
         <v>229</v>
       </c>
-      <c r="H231" s="13"/>
-      <c r="I231" s="8"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="13"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
@@ -6249,8 +6262,8 @@
       <c r="G232" s="6">
         <v>230</v>
       </c>
-      <c r="H232" s="13"/>
-      <c r="I232" s="8"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="13"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
@@ -6274,8 +6287,8 @@
       <c r="G233" s="6">
         <v>231</v>
       </c>
-      <c r="H233" s="13"/>
-      <c r="I233" s="8"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="13"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
@@ -6299,8 +6312,8 @@
       <c r="G234" s="6">
         <v>232</v>
       </c>
-      <c r="H234" s="13"/>
-      <c r="I234" s="8"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="13"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
@@ -6324,8 +6337,8 @@
       <c r="G235" s="6">
         <v>233</v>
       </c>
-      <c r="H235" s="13"/>
-      <c r="I235" s="8"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="13"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
@@ -6349,8 +6362,8 @@
       <c r="G236" s="6">
         <v>234</v>
       </c>
-      <c r="H236" s="13"/>
-      <c r="I236" s="8"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="13"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
@@ -6374,8 +6387,8 @@
       <c r="G237" s="6">
         <v>235</v>
       </c>
-      <c r="H237" s="13"/>
-      <c r="I237" s="8"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="13"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
@@ -6399,8 +6412,8 @@
       <c r="G238" s="6">
         <v>236</v>
       </c>
-      <c r="H238" s="13"/>
-      <c r="I238" s="8"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="13"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
@@ -6424,8 +6437,8 @@
       <c r="G239" s="6">
         <v>237</v>
       </c>
-      <c r="H239" s="13"/>
-      <c r="I239" s="8"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="13"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
@@ -6449,8 +6462,8 @@
       <c r="G240" s="6">
         <v>238</v>
       </c>
-      <c r="H240" s="13"/>
-      <c r="I240" s="8"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="13"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
@@ -6474,8 +6487,8 @@
       <c r="G241" s="6">
         <v>239</v>
       </c>
-      <c r="H241" s="13"/>
-      <c r="I241" s="8"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="13"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
@@ -6499,8 +6512,8 @@
       <c r="G242" s="6">
         <v>240</v>
       </c>
-      <c r="H242" s="13"/>
-      <c r="I242" s="8"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="13"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
@@ -6524,8 +6537,8 @@
       <c r="G243" s="6">
         <v>241</v>
       </c>
-      <c r="H243" s="13"/>
-      <c r="I243" s="8"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="13"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
@@ -6549,8 +6562,8 @@
       <c r="G244" s="6">
         <v>242</v>
       </c>
-      <c r="H244" s="13"/>
-      <c r="I244" s="8"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="13"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
@@ -6574,8 +6587,8 @@
       <c r="G245" s="6">
         <v>243</v>
       </c>
-      <c r="H245" s="13"/>
-      <c r="I245" s="8"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="13"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
@@ -6599,8 +6612,8 @@
       <c r="G246" s="6">
         <v>244</v>
       </c>
-      <c r="H246" s="13"/>
-      <c r="I246" s="8"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="13"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
@@ -6624,8 +6637,8 @@
       <c r="G247" s="6">
         <v>245</v>
       </c>
-      <c r="H247" s="13"/>
-      <c r="I247" s="8"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="13"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
@@ -6649,8 +6662,8 @@
       <c r="G248" s="6">
         <v>246</v>
       </c>
-      <c r="H248" s="13"/>
-      <c r="I248" s="8"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="13"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
@@ -6674,8 +6687,8 @@
       <c r="G249" s="6">
         <v>247</v>
       </c>
-      <c r="H249" s="13"/>
-      <c r="I249" s="8"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="13"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
@@ -6699,8 +6712,8 @@
       <c r="G250" s="6">
         <v>248</v>
       </c>
-      <c r="H250" s="13"/>
-      <c r="I250" s="8"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="13"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
@@ -6724,8 +6737,8 @@
       <c r="G251" s="6">
         <v>249</v>
       </c>
-      <c r="H251" s="13"/>
-      <c r="I251" s="8"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="13"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
@@ -6749,8 +6762,8 @@
       <c r="G252" s="6">
         <v>250</v>
       </c>
-      <c r="H252" s="13"/>
-      <c r="I252" s="8"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="13"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
@@ -6774,8 +6787,8 @@
       <c r="G253" s="6">
         <v>251</v>
       </c>
-      <c r="H253" s="13"/>
-      <c r="I253" s="8"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="13"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
@@ -6799,8 +6812,8 @@
       <c r="G254" s="6">
         <v>252</v>
       </c>
-      <c r="H254" s="13"/>
-      <c r="I254" s="8"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="13"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
@@ -6824,8 +6837,8 @@
       <c r="G255" s="6">
         <v>253</v>
       </c>
-      <c r="H255" s="13"/>
-      <c r="I255" s="8"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="13"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
@@ -6849,8 +6862,8 @@
       <c r="G256" s="6">
         <v>254</v>
       </c>
-      <c r="H256" s="13"/>
-      <c r="I256" s="8"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="13"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
@@ -6874,19 +6887,21 @@
       <c r="G257" s="6">
         <v>255</v>
       </c>
-      <c r="H257" s="13"/>
-      <c r="I257" s="8"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="I102:I128"/>
+    <mergeCell ref="H129:H201"/>
+    <mergeCell ref="I129:I201"/>
+    <mergeCell ref="H212:H257"/>
     <mergeCell ref="I212:I257"/>
-    <mergeCell ref="I102:I201"/>
     <mergeCell ref="H3:H11"/>
     <mergeCell ref="H32:H61"/>
     <mergeCell ref="H17:H27"/>
-    <mergeCell ref="H102:H201"/>
-    <mergeCell ref="H212:H257"/>
     <mergeCell ref="H72:H82"/>
+    <mergeCell ref="H102:H128"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Rozsahy adres.xlsx
+++ b/Rozsahy adres.xlsx
@@ -204,6 +204,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -214,15 +223,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558457E2-7356-48E1-B13E-D255B032A534}">
   <dimension ref="A2:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
@@ -614,7 +614,7 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -643,7 +643,7 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="11"/>
       <c r="I4" t="s">
         <v>6</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -694,7 +694,7 @@
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -718,7 +718,7 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -742,7 +742,7 @@
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -766,7 +766,7 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -790,7 +790,7 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -814,7 +814,7 @@
       <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -958,7 +958,7 @@
       <c r="G17" s="3">
         <v>15</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I17" t="s">
@@ -987,7 +987,7 @@
       <c r="G18" s="3">
         <v>16</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1011,7 +1011,7 @@
       <c r="G19" s="3">
         <v>17</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1035,7 +1035,7 @@
       <c r="G20" s="3">
         <v>18</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1059,7 +1059,7 @@
       <c r="G21" s="3">
         <v>19</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -1083,7 +1083,7 @@
       <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1107,7 +1107,7 @@
       <c r="G23" s="3">
         <v>21</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -1131,7 +1131,7 @@
       <c r="G24" s="3">
         <v>22</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1155,7 +1155,7 @@
       <c r="G25" s="3">
         <v>23</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1179,7 +1179,7 @@
       <c r="G26" s="3">
         <v>24</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1203,7 +1203,7 @@
       <c r="G27" s="3">
         <v>25</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1323,7 +1323,7 @@
       <c r="G32" s="4">
         <v>30</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="12" t="s">
         <v>2</v>
       </c>
       <c r="I32" t="s">
@@ -1352,7 +1352,7 @@
       <c r="G33" s="4">
         <v>31</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="12"/>
       <c r="I33" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="G34" s="4">
         <v>32</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="12"/>
       <c r="I34" t="s">
         <v>16</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="G35" s="4">
         <v>33</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="12"/>
       <c r="I35" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="G36" s="4">
         <v>34</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="12"/>
       <c r="I36" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="G37" s="4">
         <v>35</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="12"/>
       <c r="I37" t="s">
         <v>22</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="G38" s="4">
         <v>36</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="12"/>
       <c r="I38" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="G39" s="4">
         <v>37</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="12"/>
       <c r="I39" t="s">
         <v>24</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="12"/>
       <c r="I40" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="G41" s="4">
         <v>39</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -1592,7 +1592,7 @@
       <c r="G42" s="4">
         <v>40</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -1616,7 +1616,7 @@
       <c r="G43" s="4">
         <v>41</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -1640,7 +1640,7 @@
       <c r="G44" s="4">
         <v>42</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -1664,7 +1664,7 @@
       <c r="G45" s="4">
         <v>43</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -1688,7 +1688,7 @@
       <c r="G46" s="4">
         <v>44</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -1712,7 +1712,7 @@
       <c r="G47" s="4">
         <v>45</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -1736,7 +1736,7 @@
       <c r="G48" s="4">
         <v>46</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -1760,7 +1760,7 @@
       <c r="G49" s="4">
         <v>47</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -1784,7 +1784,7 @@
       <c r="G50" s="4">
         <v>48</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -1808,7 +1808,7 @@
       <c r="G51" s="4">
         <v>49</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -1832,7 +1832,7 @@
       <c r="G52" s="4">
         <v>50</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -1856,7 +1856,7 @@
       <c r="G53" s="4">
         <v>51</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -1880,7 +1880,7 @@
       <c r="G54" s="4">
         <v>52</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -1904,7 +1904,7 @@
       <c r="G55" s="4">
         <v>53</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -1928,7 +1928,7 @@
       <c r="G56" s="4">
         <v>54</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -1952,7 +1952,7 @@
       <c r="G57" s="4">
         <v>55</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -1976,7 +1976,7 @@
       <c r="G58" s="4">
         <v>56</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -2000,7 +2000,7 @@
       <c r="G59" s="4">
         <v>57</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -2024,7 +2024,7 @@
       <c r="G60" s="4">
         <v>58</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -2048,7 +2048,7 @@
       <c r="G61" s="4">
         <v>59</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -2302,7 +2302,7 @@
       <c r="G72" s="7">
         <v>70</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I72" t="s">
@@ -2331,7 +2331,7 @@
       <c r="G73" s="7">
         <v>71</v>
       </c>
-      <c r="H73" s="11"/>
+      <c r="H73" s="14"/>
       <c r="I73" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="G74" s="7">
         <v>72</v>
       </c>
-      <c r="H74" s="11"/>
+      <c r="H74" s="14"/>
       <c r="I74" t="s">
         <v>12</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="G75" s="7">
         <v>73</v>
       </c>
-      <c r="H75" s="11"/>
+      <c r="H75" s="14"/>
       <c r="I75" t="s">
         <v>13</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="G76" s="7">
         <v>74</v>
       </c>
-      <c r="H76" s="11"/>
+      <c r="H76" s="14"/>
       <c r="I76" t="s">
         <v>14</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="G77" s="7">
         <v>75</v>
       </c>
-      <c r="H77" s="11"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
@@ -2463,7 +2463,7 @@
       <c r="G78" s="7">
         <v>76</v>
       </c>
-      <c r="H78" s="11"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
@@ -2487,7 +2487,7 @@
       <c r="G79" s="7">
         <v>77</v>
       </c>
-      <c r="H79" s="11"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
@@ -2511,7 +2511,7 @@
       <c r="G80" s="7">
         <v>78</v>
       </c>
-      <c r="H80" s="11"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
@@ -2535,7 +2535,7 @@
       <c r="G81" s="7">
         <v>79</v>
       </c>
-      <c r="H81" s="11"/>
+      <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
@@ -2559,7 +2559,7 @@
       <c r="G82" s="7">
         <v>80</v>
       </c>
-      <c r="H82" s="11"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -3020,10 +3020,10 @@
       <c r="G102" s="5">
         <v>100</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3049,8 +3049,8 @@
       <c r="G103" s="5">
         <v>101</v>
       </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="13"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
@@ -3074,8 +3074,8 @@
       <c r="G104" s="5">
         <v>102</v>
       </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="13"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
@@ -3099,8 +3099,8 @@
       <c r="G105" s="5">
         <v>103</v>
       </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="13"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
@@ -3124,8 +3124,8 @@
       <c r="G106" s="5">
         <v>104</v>
       </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="13"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
@@ -3149,8 +3149,8 @@
       <c r="G107" s="5">
         <v>105</v>
       </c>
-      <c r="H107" s="12"/>
-      <c r="I107" s="13"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
@@ -3174,8 +3174,8 @@
       <c r="G108" s="5">
         <v>106</v>
       </c>
-      <c r="H108" s="12"/>
-      <c r="I108" s="13"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
@@ -3199,8 +3199,8 @@
       <c r="G109" s="5">
         <v>107</v>
       </c>
-      <c r="H109" s="12"/>
-      <c r="I109" s="13"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
@@ -3224,8 +3224,8 @@
       <c r="G110" s="5">
         <v>108</v>
       </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="13"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
@@ -3249,8 +3249,8 @@
       <c r="G111" s="5">
         <v>109</v>
       </c>
-      <c r="H111" s="12"/>
-      <c r="I111" s="13"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
@@ -3274,8 +3274,8 @@
       <c r="G112" s="5">
         <v>110</v>
       </c>
-      <c r="H112" s="12"/>
-      <c r="I112" s="13"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
@@ -3299,8 +3299,8 @@
       <c r="G113" s="5">
         <v>111</v>
       </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="13"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
@@ -3324,8 +3324,8 @@
       <c r="G114" s="5">
         <v>112</v>
       </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="13"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
@@ -3349,8 +3349,8 @@
       <c r="G115" s="5">
         <v>113</v>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="13"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
@@ -3374,8 +3374,8 @@
       <c r="G116" s="5">
         <v>114</v>
       </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="13"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
@@ -3399,8 +3399,8 @@
       <c r="G117" s="5">
         <v>115</v>
       </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="13"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
@@ -3424,8 +3424,8 @@
       <c r="G118" s="5">
         <v>116</v>
       </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="13"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
@@ -3449,8 +3449,8 @@
       <c r="G119" s="5">
         <v>117</v>
       </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="13"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
@@ -3474,8 +3474,8 @@
       <c r="G120" s="5">
         <v>118</v>
       </c>
-      <c r="H120" s="12"/>
-      <c r="I120" s="13"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
@@ -3499,8 +3499,8 @@
       <c r="G121" s="5">
         <v>119</v>
       </c>
-      <c r="H121" s="12"/>
-      <c r="I121" s="13"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
@@ -3524,8 +3524,8 @@
       <c r="G122" s="5">
         <v>120</v>
       </c>
-      <c r="H122" s="12"/>
-      <c r="I122" s="13"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
@@ -3549,8 +3549,8 @@
       <c r="G123" s="5">
         <v>121</v>
       </c>
-      <c r="H123" s="12"/>
-      <c r="I123" s="13"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
@@ -3574,8 +3574,8 @@
       <c r="G124" s="5">
         <v>122</v>
       </c>
-      <c r="H124" s="12"/>
-      <c r="I124" s="13"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
@@ -3599,8 +3599,8 @@
       <c r="G125" s="5">
         <v>123</v>
       </c>
-      <c r="H125" s="12"/>
-      <c r="I125" s="13"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="8"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
@@ -3624,8 +3624,8 @@
       <c r="G126" s="5">
         <v>124</v>
       </c>
-      <c r="H126" s="12"/>
-      <c r="I126" s="13"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="8"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
@@ -3649,8 +3649,8 @@
       <c r="G127" s="5">
         <v>125</v>
       </c>
-      <c r="H127" s="12"/>
-      <c r="I127" s="13"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
@@ -3674,8 +3674,8 @@
       <c r="G128" s="5">
         <v>126</v>
       </c>
-      <c r="H128" s="12"/>
-      <c r="I128" s="13"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
@@ -3699,10 +3699,10 @@
       <c r="G129" s="5">
         <v>127</v>
       </c>
-      <c r="H129" s="12" t="s">
+      <c r="H129" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I129" s="13" t="s">
+      <c r="I129" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3728,8 +3728,8 @@
       <c r="G130" s="5">
         <v>128</v>
       </c>
-      <c r="H130" s="12"/>
-      <c r="I130" s="13"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
@@ -3753,8 +3753,8 @@
       <c r="G131" s="5">
         <v>129</v>
       </c>
-      <c r="H131" s="12"/>
-      <c r="I131" s="13"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="8"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
@@ -3778,8 +3778,8 @@
       <c r="G132" s="5">
         <v>130</v>
       </c>
-      <c r="H132" s="12"/>
-      <c r="I132" s="13"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="8"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
@@ -3803,8 +3803,8 @@
       <c r="G133" s="5">
         <v>131</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="13"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
@@ -3828,8 +3828,8 @@
       <c r="G134" s="5">
         <v>132</v>
       </c>
-      <c r="H134" s="12"/>
-      <c r="I134" s="13"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
@@ -3853,8 +3853,8 @@
       <c r="G135" s="5">
         <v>133</v>
       </c>
-      <c r="H135" s="12"/>
-      <c r="I135" s="13"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="8"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
@@ -3878,8 +3878,8 @@
       <c r="G136" s="5">
         <v>134</v>
       </c>
-      <c r="H136" s="12"/>
-      <c r="I136" s="13"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="8"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
@@ -3903,8 +3903,8 @@
       <c r="G137" s="5">
         <v>135</v>
       </c>
-      <c r="H137" s="12"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
@@ -3928,8 +3928,8 @@
       <c r="G138" s="5">
         <v>136</v>
       </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="13"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
@@ -3953,8 +3953,8 @@
       <c r="G139" s="5">
         <v>137</v>
       </c>
-      <c r="H139" s="12"/>
-      <c r="I139" s="13"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
@@ -3978,8 +3978,8 @@
       <c r="G140" s="5">
         <v>138</v>
       </c>
-      <c r="H140" s="12"/>
-      <c r="I140" s="13"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="8"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
@@ -4003,8 +4003,8 @@
       <c r="G141" s="5">
         <v>139</v>
       </c>
-      <c r="H141" s="12"/>
-      <c r="I141" s="13"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="8"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
@@ -4028,8 +4028,8 @@
       <c r="G142" s="5">
         <v>140</v>
       </c>
-      <c r="H142" s="12"/>
-      <c r="I142" s="13"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="8"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
@@ -4053,8 +4053,8 @@
       <c r="G143" s="5">
         <v>141</v>
       </c>
-      <c r="H143" s="12"/>
-      <c r="I143" s="13"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
@@ -4078,8 +4078,8 @@
       <c r="G144" s="5">
         <v>142</v>
       </c>
-      <c r="H144" s="12"/>
-      <c r="I144" s="13"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="8"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
@@ -4103,8 +4103,8 @@
       <c r="G145" s="5">
         <v>143</v>
       </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="13"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="8"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
@@ -4128,8 +4128,8 @@
       <c r="G146" s="5">
         <v>144</v>
       </c>
-      <c r="H146" s="12"/>
-      <c r="I146" s="13"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="8"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
@@ -4153,8 +4153,8 @@
       <c r="G147" s="5">
         <v>145</v>
       </c>
-      <c r="H147" s="12"/>
-      <c r="I147" s="13"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="8"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
@@ -4178,8 +4178,8 @@
       <c r="G148" s="5">
         <v>146</v>
       </c>
-      <c r="H148" s="12"/>
-      <c r="I148" s="13"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
@@ -4203,8 +4203,8 @@
       <c r="G149" s="5">
         <v>147</v>
       </c>
-      <c r="H149" s="12"/>
-      <c r="I149" s="13"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="8"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
@@ -4228,8 +4228,8 @@
       <c r="G150" s="5">
         <v>148</v>
       </c>
-      <c r="H150" s="12"/>
-      <c r="I150" s="13"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="8"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
@@ -4253,8 +4253,8 @@
       <c r="G151" s="5">
         <v>149</v>
       </c>
-      <c r="H151" s="12"/>
-      <c r="I151" s="13"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="8"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
@@ -4278,8 +4278,8 @@
       <c r="G152" s="5">
         <v>150</v>
       </c>
-      <c r="H152" s="12"/>
-      <c r="I152" s="13"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="8"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
@@ -4303,8 +4303,8 @@
       <c r="G153" s="5">
         <v>151</v>
       </c>
-      <c r="H153" s="12"/>
-      <c r="I153" s="13"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="8"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
@@ -4328,8 +4328,8 @@
       <c r="G154" s="5">
         <v>152</v>
       </c>
-      <c r="H154" s="12"/>
-      <c r="I154" s="13"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="8"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
@@ -4353,8 +4353,8 @@
       <c r="G155" s="5">
         <v>153</v>
       </c>
-      <c r="H155" s="12"/>
-      <c r="I155" s="13"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="8"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
@@ -4378,8 +4378,8 @@
       <c r="G156" s="5">
         <v>154</v>
       </c>
-      <c r="H156" s="12"/>
-      <c r="I156" s="13"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="8"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
@@ -4403,8 +4403,8 @@
       <c r="G157" s="5">
         <v>155</v>
       </c>
-      <c r="H157" s="12"/>
-      <c r="I157" s="13"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="8"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
@@ -4428,8 +4428,8 @@
       <c r="G158" s="5">
         <v>156</v>
       </c>
-      <c r="H158" s="12"/>
-      <c r="I158" s="13"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="8"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
@@ -4453,8 +4453,8 @@
       <c r="G159" s="5">
         <v>157</v>
       </c>
-      <c r="H159" s="12"/>
-      <c r="I159" s="13"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="8"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
@@ -4478,8 +4478,8 @@
       <c r="G160" s="5">
         <v>158</v>
       </c>
-      <c r="H160" s="12"/>
-      <c r="I160" s="13"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="8"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
@@ -4503,8 +4503,8 @@
       <c r="G161" s="5">
         <v>159</v>
       </c>
-      <c r="H161" s="12"/>
-      <c r="I161" s="13"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="8"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
@@ -4528,8 +4528,8 @@
       <c r="G162" s="5">
         <v>160</v>
       </c>
-      <c r="H162" s="12"/>
-      <c r="I162" s="13"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="8"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
@@ -4553,8 +4553,8 @@
       <c r="G163" s="5">
         <v>161</v>
       </c>
-      <c r="H163" s="12"/>
-      <c r="I163" s="13"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="8"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
@@ -4578,8 +4578,8 @@
       <c r="G164" s="5">
         <v>162</v>
       </c>
-      <c r="H164" s="12"/>
-      <c r="I164" s="13"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="8"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
@@ -4603,8 +4603,8 @@
       <c r="G165" s="5">
         <v>163</v>
       </c>
-      <c r="H165" s="12"/>
-      <c r="I165" s="13"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="8"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
@@ -4628,8 +4628,8 @@
       <c r="G166" s="5">
         <v>164</v>
       </c>
-      <c r="H166" s="12"/>
-      <c r="I166" s="13"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="8"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
@@ -4653,8 +4653,8 @@
       <c r="G167" s="5">
         <v>165</v>
       </c>
-      <c r="H167" s="12"/>
-      <c r="I167" s="13"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="8"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
@@ -4678,8 +4678,8 @@
       <c r="G168" s="5">
         <v>166</v>
       </c>
-      <c r="H168" s="12"/>
-      <c r="I168" s="13"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="8"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
@@ -4703,8 +4703,8 @@
       <c r="G169" s="5">
         <v>167</v>
       </c>
-      <c r="H169" s="12"/>
-      <c r="I169" s="13"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="8"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
@@ -4728,8 +4728,8 @@
       <c r="G170" s="5">
         <v>168</v>
       </c>
-      <c r="H170" s="12"/>
-      <c r="I170" s="13"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="8"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
@@ -4753,8 +4753,8 @@
       <c r="G171" s="5">
         <v>169</v>
       </c>
-      <c r="H171" s="12"/>
-      <c r="I171" s="13"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
@@ -4778,8 +4778,8 @@
       <c r="G172" s="5">
         <v>170</v>
       </c>
-      <c r="H172" s="12"/>
-      <c r="I172" s="13"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="8"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
@@ -4803,8 +4803,8 @@
       <c r="G173" s="5">
         <v>171</v>
       </c>
-      <c r="H173" s="12"/>
-      <c r="I173" s="13"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="8"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
@@ -4828,8 +4828,8 @@
       <c r="G174" s="5">
         <v>172</v>
       </c>
-      <c r="H174" s="12"/>
-      <c r="I174" s="13"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="8"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
@@ -4853,8 +4853,8 @@
       <c r="G175" s="5">
         <v>173</v>
       </c>
-      <c r="H175" s="12"/>
-      <c r="I175" s="13"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="8"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
@@ -4878,8 +4878,8 @@
       <c r="G176" s="5">
         <v>174</v>
       </c>
-      <c r="H176" s="12"/>
-      <c r="I176" s="13"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="8"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
@@ -4903,8 +4903,8 @@
       <c r="G177" s="5">
         <v>175</v>
       </c>
-      <c r="H177" s="12"/>
-      <c r="I177" s="13"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="8"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
@@ -4928,8 +4928,8 @@
       <c r="G178" s="5">
         <v>176</v>
       </c>
-      <c r="H178" s="12"/>
-      <c r="I178" s="13"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="8"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
@@ -4953,8 +4953,8 @@
       <c r="G179" s="5">
         <v>177</v>
       </c>
-      <c r="H179" s="12"/>
-      <c r="I179" s="13"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="8"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
@@ -4978,8 +4978,8 @@
       <c r="G180" s="5">
         <v>178</v>
       </c>
-      <c r="H180" s="12"/>
-      <c r="I180" s="13"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="8"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
@@ -5003,8 +5003,8 @@
       <c r="G181" s="5">
         <v>179</v>
       </c>
-      <c r="H181" s="12"/>
-      <c r="I181" s="13"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="8"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
@@ -5028,8 +5028,8 @@
       <c r="G182" s="5">
         <v>180</v>
       </c>
-      <c r="H182" s="12"/>
-      <c r="I182" s="13"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="8"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
@@ -5053,8 +5053,8 @@
       <c r="G183" s="5">
         <v>181</v>
       </c>
-      <c r="H183" s="12"/>
-      <c r="I183" s="13"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="8"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
@@ -5078,8 +5078,8 @@
       <c r="G184" s="5">
         <v>182</v>
       </c>
-      <c r="H184" s="12"/>
-      <c r="I184" s="13"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="8"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
@@ -5103,8 +5103,8 @@
       <c r="G185" s="5">
         <v>183</v>
       </c>
-      <c r="H185" s="12"/>
-      <c r="I185" s="13"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="8"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
@@ -5128,8 +5128,8 @@
       <c r="G186" s="5">
         <v>184</v>
       </c>
-      <c r="H186" s="12"/>
-      <c r="I186" s="13"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="8"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
@@ -5153,8 +5153,8 @@
       <c r="G187" s="5">
         <v>185</v>
       </c>
-      <c r="H187" s="12"/>
-      <c r="I187" s="13"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="8"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
@@ -5178,8 +5178,8 @@
       <c r="G188" s="5">
         <v>186</v>
       </c>
-      <c r="H188" s="12"/>
-      <c r="I188" s="13"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="8"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
@@ -5203,8 +5203,8 @@
       <c r="G189" s="5">
         <v>187</v>
       </c>
-      <c r="H189" s="12"/>
-      <c r="I189" s="13"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="8"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
@@ -5228,8 +5228,8 @@
       <c r="G190" s="5">
         <v>188</v>
       </c>
-      <c r="H190" s="12"/>
-      <c r="I190" s="13"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="8"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
@@ -5253,8 +5253,8 @@
       <c r="G191" s="5">
         <v>189</v>
       </c>
-      <c r="H191" s="12"/>
-      <c r="I191" s="13"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="8"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
@@ -5278,8 +5278,8 @@
       <c r="G192" s="5">
         <v>190</v>
       </c>
-      <c r="H192" s="12"/>
-      <c r="I192" s="13"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="8"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
@@ -5303,8 +5303,8 @@
       <c r="G193" s="5">
         <v>191</v>
       </c>
-      <c r="H193" s="12"/>
-      <c r="I193" s="13"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="8"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
@@ -5328,8 +5328,8 @@
       <c r="G194" s="5">
         <v>192</v>
       </c>
-      <c r="H194" s="12"/>
-      <c r="I194" s="13"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="8"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
@@ -5353,8 +5353,8 @@
       <c r="G195" s="5">
         <v>193</v>
       </c>
-      <c r="H195" s="12"/>
-      <c r="I195" s="13"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="8"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
@@ -5378,8 +5378,8 @@
       <c r="G196" s="5">
         <v>194</v>
       </c>
-      <c r="H196" s="12"/>
-      <c r="I196" s="13"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="8"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
@@ -5403,8 +5403,8 @@
       <c r="G197" s="5">
         <v>195</v>
       </c>
-      <c r="H197" s="12"/>
-      <c r="I197" s="13"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="8"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
@@ -5428,8 +5428,8 @@
       <c r="G198" s="5">
         <v>196</v>
       </c>
-      <c r="H198" s="12"/>
-      <c r="I198" s="13"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="8"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
@@ -5453,8 +5453,8 @@
       <c r="G199" s="5">
         <v>197</v>
       </c>
-      <c r="H199" s="12"/>
-      <c r="I199" s="13"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="8"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
@@ -5478,8 +5478,8 @@
       <c r="G200" s="5">
         <v>198</v>
       </c>
-      <c r="H200" s="12"/>
-      <c r="I200" s="13"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="8"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
@@ -5503,8 +5503,8 @@
       <c r="G201" s="5">
         <v>199</v>
       </c>
-      <c r="H201" s="12"/>
-      <c r="I201" s="13"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="8"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
@@ -5758,10 +5758,10 @@
       <c r="G212" s="6">
         <v>210</v>
       </c>
-      <c r="H212" s="14" t="s">
+      <c r="H212" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I212" s="13" t="s">
+      <c r="I212" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5787,8 +5787,8 @@
       <c r="G213" s="6">
         <v>211</v>
       </c>
-      <c r="H213" s="14"/>
-      <c r="I213" s="13"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="8"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
@@ -5812,8 +5812,8 @@
       <c r="G214" s="6">
         <v>212</v>
       </c>
-      <c r="H214" s="14"/>
-      <c r="I214" s="13"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="8"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
@@ -5837,8 +5837,8 @@
       <c r="G215" s="6">
         <v>213</v>
       </c>
-      <c r="H215" s="14"/>
-      <c r="I215" s="13"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="8"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
@@ -5862,8 +5862,8 @@
       <c r="G216" s="6">
         <v>214</v>
       </c>
-      <c r="H216" s="14"/>
-      <c r="I216" s="13"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="8"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
@@ -5887,8 +5887,8 @@
       <c r="G217" s="6">
         <v>215</v>
       </c>
-      <c r="H217" s="14"/>
-      <c r="I217" s="13"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="8"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
@@ -5912,8 +5912,8 @@
       <c r="G218" s="6">
         <v>216</v>
       </c>
-      <c r="H218" s="14"/>
-      <c r="I218" s="13"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="8"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
@@ -5937,8 +5937,8 @@
       <c r="G219" s="6">
         <v>217</v>
       </c>
-      <c r="H219" s="14"/>
-      <c r="I219" s="13"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="8"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
@@ -5962,8 +5962,8 @@
       <c r="G220" s="6">
         <v>218</v>
       </c>
-      <c r="H220" s="14"/>
-      <c r="I220" s="13"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="8"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
@@ -5987,8 +5987,8 @@
       <c r="G221" s="6">
         <v>219</v>
       </c>
-      <c r="H221" s="14"/>
-      <c r="I221" s="13"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="8"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
@@ -6012,8 +6012,8 @@
       <c r="G222" s="6">
         <v>220</v>
       </c>
-      <c r="H222" s="14"/>
-      <c r="I222" s="13"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="8"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
@@ -6037,8 +6037,8 @@
       <c r="G223" s="6">
         <v>221</v>
       </c>
-      <c r="H223" s="14"/>
-      <c r="I223" s="13"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="8"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
@@ -6062,8 +6062,8 @@
       <c r="G224" s="6">
         <v>222</v>
       </c>
-      <c r="H224" s="14"/>
-      <c r="I224" s="13"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="8"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
@@ -6087,8 +6087,8 @@
       <c r="G225" s="6">
         <v>223</v>
       </c>
-      <c r="H225" s="14"/>
-      <c r="I225" s="13"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="8"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
@@ -6112,8 +6112,8 @@
       <c r="G226" s="6">
         <v>224</v>
       </c>
-      <c r="H226" s="14"/>
-      <c r="I226" s="13"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="8"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
@@ -6137,8 +6137,8 @@
       <c r="G227" s="6">
         <v>225</v>
       </c>
-      <c r="H227" s="14"/>
-      <c r="I227" s="13"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="8"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
@@ -6162,8 +6162,8 @@
       <c r="G228" s="6">
         <v>226</v>
       </c>
-      <c r="H228" s="14"/>
-      <c r="I228" s="13"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="8"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
@@ -6187,8 +6187,8 @@
       <c r="G229" s="6">
         <v>227</v>
       </c>
-      <c r="H229" s="14"/>
-      <c r="I229" s="13"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="8"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
@@ -6212,8 +6212,8 @@
       <c r="G230" s="6">
         <v>228</v>
       </c>
-      <c r="H230" s="14"/>
-      <c r="I230" s="13"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="8"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
@@ -6237,8 +6237,8 @@
       <c r="G231" s="6">
         <v>229</v>
       </c>
-      <c r="H231" s="14"/>
-      <c r="I231" s="13"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="8"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
@@ -6262,8 +6262,8 @@
       <c r="G232" s="6">
         <v>230</v>
       </c>
-      <c r="H232" s="14"/>
-      <c r="I232" s="13"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="8"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
@@ -6287,8 +6287,8 @@
       <c r="G233" s="6">
         <v>231</v>
       </c>
-      <c r="H233" s="14"/>
-      <c r="I233" s="13"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="8"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
@@ -6312,8 +6312,8 @@
       <c r="G234" s="6">
         <v>232</v>
       </c>
-      <c r="H234" s="14"/>
-      <c r="I234" s="13"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="8"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
@@ -6337,8 +6337,8 @@
       <c r="G235" s="6">
         <v>233</v>
       </c>
-      <c r="H235" s="14"/>
-      <c r="I235" s="13"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="8"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
@@ -6362,8 +6362,8 @@
       <c r="G236" s="6">
         <v>234</v>
       </c>
-      <c r="H236" s="14"/>
-      <c r="I236" s="13"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="8"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
@@ -6387,8 +6387,8 @@
       <c r="G237" s="6">
         <v>235</v>
       </c>
-      <c r="H237" s="14"/>
-      <c r="I237" s="13"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="8"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
@@ -6412,8 +6412,8 @@
       <c r="G238" s="6">
         <v>236</v>
       </c>
-      <c r="H238" s="14"/>
-      <c r="I238" s="13"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="8"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
@@ -6437,8 +6437,8 @@
       <c r="G239" s="6">
         <v>237</v>
       </c>
-      <c r="H239" s="14"/>
-      <c r="I239" s="13"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="8"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
@@ -6462,8 +6462,8 @@
       <c r="G240" s="6">
         <v>238</v>
       </c>
-      <c r="H240" s="14"/>
-      <c r="I240" s="13"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="8"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
@@ -6487,8 +6487,8 @@
       <c r="G241" s="6">
         <v>239</v>
       </c>
-      <c r="H241" s="14"/>
-      <c r="I241" s="13"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="8"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
@@ -6512,8 +6512,8 @@
       <c r="G242" s="6">
         <v>240</v>
       </c>
-      <c r="H242" s="14"/>
-      <c r="I242" s="13"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="8"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
@@ -6537,8 +6537,8 @@
       <c r="G243" s="6">
         <v>241</v>
       </c>
-      <c r="H243" s="14"/>
-      <c r="I243" s="13"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="8"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
@@ -6562,8 +6562,8 @@
       <c r="G244" s="6">
         <v>242</v>
       </c>
-      <c r="H244" s="14"/>
-      <c r="I244" s="13"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="8"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
@@ -6587,8 +6587,8 @@
       <c r="G245" s="6">
         <v>243</v>
       </c>
-      <c r="H245" s="14"/>
-      <c r="I245" s="13"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="8"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
@@ -6612,8 +6612,8 @@
       <c r="G246" s="6">
         <v>244</v>
       </c>
-      <c r="H246" s="14"/>
-      <c r="I246" s="13"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="8"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
@@ -6637,8 +6637,8 @@
       <c r="G247" s="6">
         <v>245</v>
       </c>
-      <c r="H247" s="14"/>
-      <c r="I247" s="13"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="8"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
@@ -6662,8 +6662,8 @@
       <c r="G248" s="6">
         <v>246</v>
       </c>
-      <c r="H248" s="14"/>
-      <c r="I248" s="13"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="8"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
@@ -6687,8 +6687,8 @@
       <c r="G249" s="6">
         <v>247</v>
       </c>
-      <c r="H249" s="14"/>
-      <c r="I249" s="13"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="8"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
@@ -6712,8 +6712,8 @@
       <c r="G250" s="6">
         <v>248</v>
       </c>
-      <c r="H250" s="14"/>
-      <c r="I250" s="13"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="8"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
@@ -6737,8 +6737,8 @@
       <c r="G251" s="6">
         <v>249</v>
       </c>
-      <c r="H251" s="14"/>
-      <c r="I251" s="13"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="8"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
@@ -6762,8 +6762,8 @@
       <c r="G252" s="6">
         <v>250</v>
       </c>
-      <c r="H252" s="14"/>
-      <c r="I252" s="13"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="8"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
@@ -6787,8 +6787,8 @@
       <c r="G253" s="6">
         <v>251</v>
       </c>
-      <c r="H253" s="14"/>
-      <c r="I253" s="13"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="8"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
@@ -6812,8 +6812,8 @@
       <c r="G254" s="6">
         <v>252</v>
       </c>
-      <c r="H254" s="14"/>
-      <c r="I254" s="13"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="8"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
@@ -6837,8 +6837,8 @@
       <c r="G255" s="6">
         <v>253</v>
       </c>
-      <c r="H255" s="14"/>
-      <c r="I255" s="13"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="8"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
@@ -6862,8 +6862,8 @@
       <c r="G256" s="6">
         <v>254</v>
       </c>
-      <c r="H256" s="14"/>
-      <c r="I256" s="13"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="8"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
@@ -6887,21 +6887,21 @@
       <c r="G257" s="6">
         <v>255</v>
       </c>
-      <c r="H257" s="14"/>
-      <c r="I257" s="13"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:H11"/>
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="H17:H27"/>
+    <mergeCell ref="H72:H82"/>
+    <mergeCell ref="H102:H128"/>
     <mergeCell ref="I102:I128"/>
     <mergeCell ref="H129:H201"/>
     <mergeCell ref="I129:I201"/>
     <mergeCell ref="H212:H257"/>
     <mergeCell ref="I212:I257"/>
-    <mergeCell ref="H3:H11"/>
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="H17:H27"/>
-    <mergeCell ref="H72:H82"/>
-    <mergeCell ref="H102:H128"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
